--- a/학습자료/순서배열/고려_연도(왕)_연도별모음_문제.xlsx
+++ b/학습자료/순서배열/고려_연도(왕)_연도별모음_문제.xlsx
@@ -453,21 +453,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ㄱ. 국자감을 국학으로 개칭 
-ㄴ. 지방 12목에 경학박사 의학박사 파견 
-ㄷ. 후삼국 통일</t>
+          <t>ㄱ. 최충헌의 봉사 10조 저술 
+ㄴ. 저화 발행 
+ㄷ. 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 936년 : 태조 - 후삼국 통일
-ㄴ. 987년 : 성종 - 지방 12목에 경학박사 의학박사 파견
-ㄱ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+          <t xml:space="preserve">ㄱ. 1196년 : 명종 - 최충헌의 봉사 10조 저술
+ㄷ. 1253년 : 고종 - 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
+ㄴ. 1391년 : 공양왕 - 저화 발행
 </t>
         </is>
       </c>
@@ -475,21 +475,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ㄱ. 이자겸의 난 
-ㄴ. 유신지교 15조 발표 
-ㄷ. 서경에 대화궁 건립</t>
+          <t>ㄱ. 최충헌의 도방 재건 및 확대 
+ㄴ. 자제위 설치 
+ㄷ. 훈요 10조 저술</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1126년 : 인종 - 이자겸의 난
-ㄴ. 1127년 : 인종 - 유신지교 15조 발표
-ㄷ. 1129년 : 인종 - 서경에 대화궁 건립
+          <t xml:space="preserve">ㄷ. 943년 : 태조 - 훈요 10조 저술
+ㄱ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
+ㄴ. 1372년 : 공민왕 - 자제위 설치
 </t>
         </is>
       </c>
@@ -497,21 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ㄱ. 전주 관노의 난 
-ㄴ. 교장도감 설치 
-ㄷ. 최우 서방 설치</t>
+          <t>ㄱ. 거란의 2차 침입 
+ㄴ. 송나라 서긍의 고려도경 저술 
+ㄷ. 원나라의 정동행성 설치</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1086년 : 선종 - 교장도감 설치
-ㄱ. 1182년 : 명종 - 전주 관노의 난
-ㄷ. 1227년 : 고종 - 최우 서방 설치
+          <t xml:space="preserve">ㄱ. 1010년 : 현종 - 거란의 2차 침입
+ㄴ. 1123년 : 인종 - 송나라 서긍의 고려도경 저술
+ㄷ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
 </t>
         </is>
       </c>
@@ -519,9 +519,9 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ㄱ. 강조의 정변 
-ㄴ. 남경 설치 
-ㄷ. 전주 관노의 난</t>
+          <t>ㄱ. 노비안검법 실시 
+ㄴ. 성균관 순수 유학교육기관으로 개편 
+ㄷ. 최영의 이인임 일파 축출</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -531,9 +531,9 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1009년 : 목종 - 강조의 정변
-ㄴ. 1067년 : 문종 - 남경 설치
-ㄷ. 1182년 : 명종 - 전주 관노의 난
+          <t xml:space="preserve">ㄱ. 956년 : 광종 - 노비안검법 실시
+ㄴ. 1367년 : 공민왕 - 성균관 순수 유학교육기관으로 개편
+ㄷ. 1388년 : 우왕 - 최영의 이인임 일파 축출
 </t>
         </is>
       </c>
@@ -541,9 +541,9 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ㄱ. 훈요 10조 저술 
-ㄴ. 개경에 나성 축조 
-ㄷ. 이성계의 황산대첩</t>
+          <t>ㄱ. 최우의 강화도 천도 
+ㄴ. 국자감을 국학으로 개칭 
+ㄷ. 사심관제도 폐지</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -553,9 +553,9 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 943년 : 태조 - 훈요 10조 저술
-ㄴ. 1029년 : 현종 - 개경에 나성 축조
-ㄷ. 1380년 : 우왕 - 이성계의 황산대첩
+          <t xml:space="preserve">ㄱ. 1232년 : 고종 - 최우의 강화도 천도
+ㄴ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+ㄷ. 1318년 : 충숙왕 - 사심관제도 폐지
 </t>
         </is>
       </c>
@@ -563,21 +563,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ㄱ. 일연 삼국유사 편찬 
-ㄴ. 정몽주 암살 
-ㄷ. 초조대장경 간행 시작</t>
+          <t>ㄱ. 최무선의 진포대첩 
+ㄴ. 상평창 설치 
+ㄷ. 동녕부 수복</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1011년 : 현종 - 초조대장경 간행 시작
-ㄱ. 1281년 : 충렬왕 - 일연 삼국유사 편찬
-ㄴ. 1392년 : 공양왕 - 정몽주 암살
+          <t xml:space="preserve">ㄴ. 993년 : 성종 - 상평창 설치
+ㄷ. 1290년 : 충렬왕 - 동녕부 수복
+ㄱ. 1380년 : 우왕 - 최무선의 진포대첩
 </t>
         </is>
       </c>
@@ -585,21 +585,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 봉사 10조 저술 
-ㄴ. 전주 관노의 난 
-ㄷ. 상정고금예문 인쇄</t>
+          <t>ㄱ. 참설직 설치 
+ㄴ. 홍건적의 2차 침입 및 개경 함락 
+ㄷ. 향약구급방 간행</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1182년 : 명종 - 전주 관노의 난
-ㄱ. 1196년 : 명종 - 최충헌의 봉사 10조 저술
-ㄷ. 1234년 : 고종 - 상정고금예문 인쇄
+          <t xml:space="preserve">ㄷ. 1236년 : 고종 - 향약구급방 간행
+ㄱ. 1354년 : 공민왕 - 참설직 설치
+ㄴ. 1361년 : 공민왕 - 홍건적의 2차 침입 및 개경 함락
 </t>
         </is>
       </c>
@@ -607,43 +607,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ㄱ. 이의민 집권 
-ㄴ. 교장도감 설치 
-ㄷ. 정방 최종 폐지</t>
+          <t>ㄱ. 최초로 지방관 파견 
+ㄴ. 도평의사사 건의로 무과 설치 
+ㄷ. 성균관 순수 유학교육기관으로 개편</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1086년 : 선종 - 교장도감 설치
-ㄱ. 1183년 : 명종 - 이의민 집권
-ㄷ. 1388년 : 창왕 - 정방 최종 폐지
-</t>
+          <t xml:space="preserve">ㄱ. 983년 : 성종 - 최초로 지방관 파견
+ㄷ. 1367년 : 공민왕 - 성균관 순수 유학교육기관으로 개편
+ㄴ. 1390년 : 공양</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ㄱ. 이승휴 제왕운기 저술 
-ㄴ. 이규보의 동국이상국집 편찬 
-ㄷ. 건원중보 발행</t>
+          <t>ㄱ. 주현공부법 실시 
+ㄴ. 노비환천법 실시 
+ㄷ. 요세의 백련사 결사 운동</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 996년 : 성종 - 건원중보 발행
-ㄴ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
-ㄱ. 1287년 : 충렬왕 - 이승휴 제왕운기 저술
+          <t xml:space="preserve">ㄱ. 949년 : 광종 - 주현공부법 실시
+ㄴ. 987년 : 성종 - 노비환천법 실시
+ㄷ. 1208년 : 희종 - 요세의 백련사 결사 운동
 </t>
         </is>
       </c>
@@ -651,9 +650,9 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ㄱ. 정중부 집권 
-ㄴ. 도병마사 도평의사사로 개칭 
-ㄷ. 만적의 난</t>
+          <t>ㄱ. 관학 7재 설치 
+ㄴ. 정방 최종 폐지 
+ㄷ. 전민변정도감 재설치</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -663,9 +662,9 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1174년 : 명종 - 정중부 집권
-ㄷ. 1198년 : 신종 - 만적의 난
-ㄴ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
+          <t xml:space="preserve">ㄱ. 1109년 : 예종 - 관학 7재 설치
+ㄷ. 1366년 : 공민왕 - 전민변정도감 재설치
+ㄴ. 1388년 : 창왕 - 정방 최종 폐지
 </t>
         </is>
       </c>
@@ -673,9 +672,9 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투 
-ㄴ. 개경에 나성 축조 
-ㄷ. 전주 관노의 난</t>
+          <t>ㄱ. 정방 최종 폐지 
+ㄴ. 최초로 지방관 파견 
+ㄷ. 남경 설치</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -685,9 +684,9 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1029년 : 현종 - 개경에 나성 축조
-ㄷ. 1182년 : 명종 - 전주 관노의 난
-ㄱ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
+          <t xml:space="preserve">ㄴ. 983년 : 성종 - 최초로 지방관 파견
+ㄷ. 1067년 : 문종 - 남경 설치
+ㄱ. 1388년 : 창왕 - 정방 최종 폐지
 </t>
         </is>
       </c>
@@ -695,21 +694,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ㄱ. 황룡사 및 황룡사 9층 목탑 소실 
-ㄴ. 교장도감 설치 
-ㄷ. 승과제도 실시</t>
+          <t>ㄱ. 비서성 수서원 설치 
+ㄴ. 원나라의 1차 일본 원정 
+ㄷ. 국자감을 국학으로 개칭</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 958년 : 광종 - 승과제도 실시
-ㄴ. 1086년 : 선종 - 교장도감 설치
-ㄱ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
+          <t xml:space="preserve">ㄱ. 990년 : 성종 - 비서성 수서원 설치
+ㄴ. 1274년 : 충렬왕 - 원나라의 1차 일본 원정
+ㄷ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
 </t>
         </is>
       </c>
@@ -717,21 +716,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ㄱ. 비서성 수서원 설치 
-ㄴ. 건원중보 발행 
-ㄷ. 경대승 집권</t>
+          <t>ㄱ. 승과제도 실시 
+ㄴ. 이규보의 동국이상국집 편찬 
+ㄷ. 이연년의 난</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 990년 : 성종 - 비서성 수서원 설치
-ㄴ. 996년 : 성종 - 건원중보 발행
-ㄷ. 1179년 : 명종 - 경대승 집권
+          <t xml:space="preserve">ㄱ. 958년 : 광종 - 승과제도 실시
+ㄷ. 1237년 : 고종 - 이연년의 난
+ㄴ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
 </t>
         </is>
       </c>
@@ -739,21 +738,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 교정도감 설치 
-ㄴ. 결혼도감 설치 
-ㄷ. 이자겸의 금 사대관계 수용</t>
+          <t>ㄱ. 홍건적의 1차 침입 및 서경 함락 
+ㄴ. 주전도감 설치 
+ㄷ. 거란의 3차 침입</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
-ㄱ. 1209년 : 희종 - 최충헌의 교정도감 설치
-ㄴ. 1274년 : 원종 - 결혼도감 설치
+          <t xml:space="preserve">ㄷ. 1018년 : 현종 - 거란의 3차 침입
+ㄴ. 1097년 : 숙종 - 주전도감 설치
+ㄱ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
 </t>
         </is>
       </c>
@@ -761,21 +760,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ㄱ. 남경 설치 
-ㄴ. 거란의 2차 침입 
-ㄷ. 최우 정방 설치</t>
+          <t>ㄱ. 최승로의 시무 28조 저술 
+ㄴ. 명의 철령위 설치 통보 
+ㄷ. 향약구급방 간행</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1010년 : 현종 - 거란의 2차 침입
-ㄱ. 1067년 : 문종 - 남경 설치
-ㄷ. 1225년 : 고종 - 최우 정방 설치
+          <t xml:space="preserve">ㄱ. 982년 : 성종 - 최승로의 시무 28조 저술
+ㄷ. 1236년 : 고종 - 향약구급방 간행
+ㄴ. 1388년 : 우왕 - 명의 철령위 설치 통보
 </t>
         </is>
       </c>
@@ -783,21 +782,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ㄱ. 흥왕사의 변 
-ㄴ. 초조대장경 간행 시작 
-ㄷ. 만부교 사건</t>
+          <t>ㄱ. 전주 관노의 난 
+ㄴ. 이제현 역사서 사략 저술 
+ㄷ. 경대승 집권</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 942년 : 태조 - 만부교 사건
-ㄴ. 1011년 : 현종 - 초조대장경 간행 시작
-ㄱ. 1363년 : 공민왕 - 흥왕사의 변
+          <t xml:space="preserve">ㄷ. 1179년 : 명종 - 경대승 집권
+ㄱ. 1182년 : 명종 - 전주 관노의 난
+ㄴ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
 </t>
         </is>
       </c>
@@ -805,21 +804,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ㄱ. 원나라 연호 폐지 및 관제 복구 
-ㄴ. 훈요 10조 저술 
-ㄷ. 서경 천도 실패</t>
+          <t>ㄱ. 거란의 정안국 격파 
+ㄴ. 경대승 집권 
+ㄷ. 7대실록 완성</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 943년 : 태조 - 훈요 10조 저술
-ㄷ. 946년 : 정종 - 서경 천도 실패
-ㄱ. 1356년 : 공민왕 - 원나라 연호 폐지 및 관제 복구
+          <t xml:space="preserve">ㄱ. 986년 : 성종 - 거란의 정안국 격파
+ㄷ. 1034년 : 덕종 - 7대실록 완성
+ㄴ. 1179년 : 명종 - 경대승 집권
 </t>
         </is>
       </c>
@@ -827,9 +826,9 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ㄱ. 이연년의 난 
-ㄴ. 참설직 설치 
-ㄷ. 화통도감 설치</t>
+          <t>ㄱ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투 
+ㄴ. 지원보초 유통 
+ㄷ. 직지심체요절 간행</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -839,9 +838,9 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1237년 : 고종 - 이연년의 난
-ㄴ. 1354년 : 공민왕 - 참설직 설치
-ㄷ. 1377년 : 우왕 - 화통도감 설치
+          <t xml:space="preserve">ㄱ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
+ㄴ. 1278년 : 충렬왕 - 지원보초 유통
+ㄷ. 1377년 : 우왕 - 직지심체요절 간행
 </t>
         </is>
       </c>
@@ -849,21 +848,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ㄱ. 정방 폐지(공민왕) 
-ㄴ. 개경에 시전 설치 
-ㄷ. 평양에 기자사당 건립</t>
+          <t>ㄱ. 5도 양계 4도호부 8목 및 3경 정비 
+ㄴ. 섬학전 마련 
+ㄷ. 경정 전시과 시행</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 919년 : 태조 - 개경에 시전 설치
-ㄷ. 1102년 : 숙종 - 평양에 기자사당 건립
-ㄱ. 1352년 : 공민왕 - 정방 폐지(공민왕)
+          <t xml:space="preserve">ㄱ. 1018년 : 현종 - 5도 양계 4도호부 8목 및 3경 정비
+ㄷ. 1076년 : 문종 - 경정 전시과 시행
+ㄴ. 1304년 : 충렬왕 - 섬학전 마련
 </t>
         </is>
       </c>
@@ -871,21 +870,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골의 2차 침입 김윤후의 처인성 전투 
-ㄴ. 정몽주 암살 
-ㄷ. 서경 천도 실패</t>
+          <t>ㄱ. 이규보의 동국이상국집 편찬 
+ㄴ. 최치원 문창후에 추시 및 문묘에 배향 
+ㄷ. 김보당의 난</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 946년 : 정종 - 서경 천도 실패
-ㄱ. 1232년 : 고종 - 몽골의 2차 침입 김윤후의 처인성 전투
-ㄴ. 1392년 : 공양왕 - 정몽주 암살
+          <t xml:space="preserve">ㄴ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄷ. 1173년 : 명종 - 김보당의 난
+ㄱ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
 </t>
         </is>
       </c>
@@ -893,21 +892,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ㄱ. 송과 국교 수립 
-ㄴ. 대요수국 2차 침입 
-ㄷ. 묘청의 서경 천도 운동</t>
+          <t>ㄱ. 서경 천도 실패 
+ㄴ. 동북 9성 축조 
+ㄷ. 구제도감 설치</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 962년 : 광종 - 송과 국교 수립
-ㄷ. 1135년 : 인종 - 묘청의 서경 천도 운동
-ㄴ. 1218년 : 고종 - 대요수국 2차 침입
+          <t xml:space="preserve">ㄱ. 946년 : 정종 - 서경 천도 실패
+ㄴ. 1108년 : 예종 - 동북 9성 축조
+ㄷ. 1109년 : 예종 - 구제도감 설치
 </t>
         </is>
       </c>
@@ -915,21 +914,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ㄱ. 찰리변위도감 설치 
-ㄴ. 왕규의 난 
-ㄷ. 관학 7재 설치</t>
+          <t>ㄱ. 최충헌의 도방 재건 및 확대 
+ㄴ. 귀법사 창건 
+ㄷ. 홍건적의 2차 침입 및 개경 함락</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 945년 : 혜종 - 왕규의 난
-ㄷ. 1109년 : 예종 - 관학 7재 설치
-ㄱ. 1318년 : 충숙왕 - 찰리변위도감 설치
+          <t xml:space="preserve">ㄴ. 963년 : 광종 - 귀법사 창건
+ㄱ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
+ㄷ. 1361년 : 공민왕 - 홍건적의 2차 침입 및 개경 함락
 </t>
         </is>
       </c>
@@ -937,21 +936,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ㄱ. 결혼도감 설치 
-ㄴ. 이성계의 황산대첩 
-ㄷ. 상정고금예문 인쇄</t>
+          <t>ㄱ. 후삼국 통일 
+ㄴ. 몽골의 6차 침입 및 충주 다인철소 전투 
+ㄷ. 청연각 보문각 설치</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1234년 : 고종 - 상정고금예문 인쇄
-ㄱ. 1274년 : 원종 - 결혼도감 설치
-ㄴ. 1380년 : 우왕 - 이성계의 황산대첩
+          <t xml:space="preserve">ㄱ. 936년 : 태조 - 후삼국 통일
+ㄷ. 1116년 : 예종 - 청연각 보문각 설치
+ㄴ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
 </t>
         </is>
       </c>
@@ -959,21 +958,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ㄱ. 이자겸의 금 사대관계 수용 
-ㄴ. 이비 패좌의 난 
-ㄷ. 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴</t>
+          <t>ㄱ. 최치원 문창후에 추시 및 문묘에 배향 
+ㄴ. 노비안검법 실시 
+ㄷ. 정방 폐지(공민왕)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
-ㄴ. 1202년 : 신종 - 이비 패좌의 난
-ㄷ. 1253년 : 고종 - 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
+          <t xml:space="preserve">ㄴ. 956년 : 광종 - 노비안검법 실시
+ㄱ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄷ. 1352년 : 공민왕 - 정방 폐지(공민왕)
 </t>
         </is>
       </c>
@@ -981,21 +980,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ㄱ. 남경 설치 
-ㄴ. 현화사 건립 
-ㄷ. 이의방 정중부의 무신정변 발발</t>
+          <t>ㄱ. 초조대장경 간행 시작 
+ㄴ. 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴 
+ㄷ. 몽골과 강화 체결</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1018년 : 현종 - 현화사 건립
-ㄱ. 1067년 : 문종 - 남경 설치
-ㄷ. 1170년 : 의종 - 이의방 정중부의 무신정변 발발
+          <t xml:space="preserve">ㄱ. 1011년 : 현종 - 초조대장경 간행 시작
+ㄴ. 1253년 : 고종 - 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
+ㄷ. 1259년 : 고종 - 몽골과 강화 체결
 </t>
         </is>
       </c>
@@ -1003,21 +1002,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ㄱ. 이자겸의 금 사대관계 수용 
-ㄴ. 대요수국 2차 침입 
-ㄷ. 경정 전시과 시행</t>
+          <t>ㄱ. 원 세조 고려에 불개토풍 원칙 선언 
+ㄴ. 평양에 기자사당 건립 
+ㄷ. 쌍성총관부 설치</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1076년 : 문종 - 경정 전시과 시행
-ㄱ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
-ㄴ. 1218년 : 고종 - 대요수국 2차 침입
+          <t xml:space="preserve">ㄴ. 1102년 : 숙종 - 평양에 기자사당 건립
+ㄷ. 1258년 : 고종 - 쌍성총관부 설치
+ㄱ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
 </t>
         </is>
       </c>
@@ -1025,21 +1024,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ㄱ. 망이 망소이의 난 
-ㄴ. 최승로의 시무 28조 저술 
-ㄷ. 유신지교 15조 발표</t>
+          <t>ㄱ. 천리장성 완공 
+ㄴ. 광학보 설치 
+ㄷ. 요세의 백련사 결사 운동</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 982년 : 성종 - 최승로의 시무 28조 저술
-ㄷ. 1127년 : 인종 - 유신지교 15조 발표
-ㄱ. 1176년 : 명종 - 망이 망소이의 난
+          <t xml:space="preserve">ㄴ. 946년 : 정종 - 광학보 설치
+ㄱ. 1044년 : 정종 - 천리장성 완공
+ㄷ. 1208년 : 희종 - 요세의 백련사 결사 운동
 </t>
         </is>
       </c>
@@ -1047,9 +1046,9 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ㄱ. 왕규의 난 
-ㄴ. 성균관 순수 유학교육기관으로 개편 
-ㄷ. 노비안검법 실시</t>
+          <t>ㄱ. 귀주대첩 
+ㄴ. 대요수국 2차 침입 
+ㄷ. 경대승 집권</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1059,9 +1058,9 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 945년 : 혜종 - 왕규의 난
-ㄷ. 956년 : 광종 - 노비안검법 실시
-ㄴ. 1367년 : 공민왕 - 성균관 순수 유학교육기관으로 개편
+          <t xml:space="preserve">ㄱ. 1019년 : 현종 - 귀주대첩
+ㄷ. 1179년 : 명종 - 경대승 집권
+ㄴ. 1218년 : 고종 - 대요수국 2차 침입
 </t>
         </is>
       </c>
@@ -1069,21 +1068,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ㄱ. 이승휴 제왕운기 저술 
-ㄴ. 이의민 집권 
-ㄷ. 흥왕사의 변</t>
+          <t>ㄱ. 이성계의 요동 공격으로 요양 일시 점령 
+ㄴ. 귀주대첩 
+ㄷ. 신진 사대부 등용 위한 과거제 정비</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1183년 : 명종 - 이의민 집권
-ㄱ. 1287년 : 충렬왕 - 이승휴 제왕운기 저술
-ㄷ. 1363년 : 공민왕 - 흥왕사의 변
+          <t xml:space="preserve">ㄴ. 1019년 : 현종 - 귀주대첩
+ㄷ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
+ㄱ. 1370년 : 공민왕 - 이성계의 요동 공격으로 요양 일시 점령
 </t>
         </is>
       </c>
@@ -1091,21 +1090,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ㄱ. 전주 관노의 난 
-ㄴ. 최승로의 시무 28조 저술 
-ㄷ. 결혼도감 설치</t>
+          <t>ㄱ. 자제위 설치 
+ㄴ. 거란의 2차 침입 
+ㄷ. 학보 설치</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 982년 : 성종 - 최승로의 시무 28조 저술
-ㄱ. 1182년 : 명종 - 전주 관노의 난
-ㄷ. 1274년 : 원종 - 결혼도감 설치
+          <t xml:space="preserve">ㄷ. 930년 : 태조 - 학보 설치
+ㄴ. 1010년 : 현종 - 거란의 2차 침입
+ㄱ. 1372년 : 공민왕 - 자제위 설치
 </t>
         </is>
       </c>
@@ -1113,21 +1112,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ㄱ. 찰리변위도감 설치 
-ㄴ. 충선왕 복위교서 발표 
-ㄷ. 김부식의 삼국사기 편찬</t>
+          <t>ㄱ. 거란의 2차 침입 
+ㄴ. 귀법사 창건 
+ㄷ. 요세의 백련사 결사 운동</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1145년 : 인종 - 김부식의 삼국사기 편찬
-ㄴ. 1308년 : 충선왕 - 충선왕 복위교서 발표
-ㄱ. 1318년 : 충숙왕 - 찰리변위도감 설치
+          <t xml:space="preserve">ㄴ. 963년 : 광종 - 귀법사 창건
+ㄱ. 1010년 : 현종 - 거란의 2차 침입
+ㄷ. 1208년 : 희종 - 요세의 백련사 결사 운동
 </t>
         </is>
       </c>
@@ -1135,21 +1134,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ㄱ. 김위제의 건의로 남경 건설 추진 
-ㄴ. 왕규의 난 
-ㄷ. 정세운 이방실 개경 수복</t>
+          <t>ㄱ. 주현공부법 실시 
+ㄴ. 혜민국 설치 
+ㄷ. 충선왕 복위교서 발표</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 945년 : 혜종 - 왕규의 난
-ㄱ. 1099년 : 숙종 - 김위제의 건의로 남경 건설 추진
-ㄷ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
+          <t xml:space="preserve">ㄱ. 949년 : 광종 - 주현공부법 실시
+ㄴ. 1112년 : 예종 - 혜민국 설치
+ㄷ. 1308년 : 충선왕 - 충선왕 복위교서 발표
 </t>
         </is>
       </c>
@@ -1157,21 +1156,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ㄱ. 혜민국 설치 
-ㄴ. 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴 
-ㄷ. 국학을 성균관으로 개칭</t>
+          <t>ㄱ. 귀주대첩 
+ㄴ. 유신지교 15조 발표 
+ㄷ. 거란의 1차 침입 및 서희의 강동 6주 획득</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1112년 : 예종 - 혜민국 설치
-ㄴ. 1253년 : 고종 - 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
-ㄷ. 1308년 : 충선왕 - 국학을 성균관으로 개칭
+          <t xml:space="preserve">ㄷ. 993년 : 성종 - 거란의 1차 침입 및 서희의 강동 6주 획득
+ㄱ. 1019년 : 현종 - 귀주대첩
+ㄴ. 1127년 : 인종 - 유신지교 15조 발표
 </t>
         </is>
       </c>
@@ -1179,21 +1178,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ㄱ. 원나라의 정동행성 설치 
-ㄴ. 전주 관노의 난 
-ㄷ. 정세운 이방실 개경 수복</t>
+          <t>ㄱ. 동녕부 설치 
+ㄴ. 민지 본조편년강목 저술 
+ㄷ. 공복 제정</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1182년 : 명종 - 전주 관노의 난
-ㄱ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
-ㄷ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
+          <t xml:space="preserve">ㄷ. 960년 : 광종 - 공복 제정
+ㄱ. 1270년 : 원종 - 동녕부 설치
+ㄴ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
 </t>
         </is>
       </c>
@@ -1201,21 +1200,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ㄱ. 흥왕사의 변 
-ㄴ. 상정고금예문 인쇄 
-ㄷ. 박위의 쓰시마 토벌</t>
+          <t>ㄱ. 경정 전시과 시행 
+ㄴ. 기인선상법 실시 
+ㄷ. 후삼국 통일</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
-ㄱ. 1363년 : 공민왕 - 흥왕사의 변
-ㄷ. 1389년 : 창왕 - 박위의 쓰시마 토벌
+          <t xml:space="preserve">ㄷ. 936년 : 태조 - 후삼국 통일
+ㄱ. 1076년 : 문종 - 경정 전시과 시행
+ㄴ. 1077년 : 문종 - 기인선상법 실시
 </t>
         </is>
       </c>
@@ -1223,9 +1222,9 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ㄱ. 직지심체요절 간행 
-ㄴ. 후삼국 통일 
-ㄷ. 원나라의 정동행성 설치</t>
+          <t>ㄱ. 정지의 관음포 대첩 
+ㄴ. 기인선상법 실시 
+ㄷ. 김부식의 삼국사기 편찬</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1235,9 +1234,9 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 936년 : 태조 - 후삼국 통일
-ㄷ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
-ㄱ. 1377년 : 우왕 - 직지심체요절 간행
+          <t xml:space="preserve">ㄴ. 1077년 : 문종 - 기인선상법 실시
+ㄷ. 1145년 : 인종 - 김부식의 삼국사기 편찬
+ㄱ. 1383년 : 우왕 - 정지의 관음포 대첩
 </t>
         </is>
       </c>
@@ -1245,21 +1244,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ㄱ. 주전도감 설치 
-ㄴ. 몽골풍 폐지 
-ㄷ. 향약구급방 간행</t>
+          <t>ㄱ. 교장도감 설치 
+ㄴ. 기인선상법 실시 
+ㄷ. 개경에 나성 축조</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1097년 : 숙종 - 주전도감 설치
-ㄷ. 1236년 : 고종 - 향약구급방 간행
-ㄴ. 1352년 : 공민왕 - 몽골풍 폐지
+          <t xml:space="preserve">ㄷ. 1029년 : 현종 - 개경에 나성 축조
+ㄴ. 1077년 : 문종 - 기인선상법 실시
+ㄱ. 1086년 : 선종 - 교장도감 설치
 </t>
         </is>
       </c>
@@ -1267,21 +1266,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ㄱ. 최우 서방 설치 
-ㄴ. 이의방 정중부의 무신정변 발발 
-ㄷ. 최충헌의 도방 재건 및 확대</t>
+          <t>ㄱ. 남경 설치 
+ㄴ. 원 세조 고려에 불개토풍 원칙 선언 
+ㄷ. 동북 9성 축조</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1170년 : 의종 - 이의방 정중부의 무신정변 발발
-ㄷ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
-ㄱ. 1227년 : 고종 - 최우 서방 설치
+          <t xml:space="preserve">ㄱ. 1067년 : 문종 - 남경 설치
+ㄷ. 1108년 : 예종 - 동북 9성 축조
+ㄴ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
 </t>
         </is>
       </c>
@@ -1289,21 +1288,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ㄱ. 정세운 이방실 개경 수복 
-ㄴ. 개경에 나성 축조 
-ㄷ. 정방 최종 폐지</t>
+          <t>ㄱ. 대요수국 2차 침입 
+ㄴ. 정치도감 설치 
+ㄷ. 황룡사 및 황룡사 9층 목탑 소실</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1029년 : 현종 - 개경에 나성 축조
-ㄱ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
-ㄷ. 1388년 : 창왕 - 정방 최종 폐지
+          <t xml:space="preserve">ㄱ. 1218년 : 고종 - 대요수국 2차 침입
+ㄷ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
+ㄴ. 1347년 : 충목왕 - 정치도감 설치
 </t>
         </is>
       </c>
@@ -1311,21 +1310,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ㄱ. 동북 9성 축조 
-ㄴ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투 
-ㄷ. 김보당의 난</t>
+          <t>ㄱ. 경정 전시과 시행 
+ㄴ. 송과 국교 수립 
+ㄷ. 최의 피살 및 최씨정권 붕괴</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1108년 : 예종 - 동북 9성 축조
-ㄷ. 1173년 : 명종 - 김보당의 난
-ㄴ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
+          <t xml:space="preserve">ㄴ. 962년 : 광종 - 송과 국교 수립
+ㄱ. 1076년 : 문종 - 경정 전시과 시행
+ㄷ. 1258년 : 고종 - 최의 피살 및 최씨정권 붕괴
 </t>
         </is>
       </c>
@@ -1333,21 +1332,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ㄱ. 김보당의 난 
-ㄴ. 이자겸의 난 
-ㄷ. 김위제의 건의로 남경 건설 추진</t>
+          <t>ㄱ. 7대실록 완성 
+ㄴ. 역분전 지급 
+ㄷ. 이자겸의 금 사대관계 수용</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1099년 : 숙종 - 김위제의 건의로 남경 건설 추진
-ㄴ. 1126년 : 인종 - 이자겸의 난
-ㄱ. 1173년 : 명종 - 김보당의 난
+          <t xml:space="preserve">ㄴ. 940년 : 태조 - 역분전 지급
+ㄱ. 1034년 : 덕종 - 7대실록 완성
+ㄷ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
 </t>
         </is>
       </c>
@@ -1355,21 +1354,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ㄱ. 개경에 시전 설치 
-ㄴ. 이의민 집권 
-ㄷ. 왕규의 난</t>
+          <t>ㄱ. 결혼도감 설치 
+ㄴ. 탐라총관부 설치 
+ㄷ. 녹과전 실시</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 919년 : 태조 - 개경에 시전 설치
-ㄷ. 945년 : 혜종 - 왕규의 난
-ㄴ. 1183년 : 명종 - 이의민 집권
+          <t xml:space="preserve">ㄷ. 1271년 : 원종 - 녹과전 실시
+ㄴ. 1273년 : 원종 - 탐라총관부 설치
+ㄱ. 1274년 : 원종 - 결혼도감 설치
 </t>
         </is>
       </c>
@@ -1377,21 +1376,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ㄱ. 서경 천도 실패 
-ㄴ. 최치원 문창후에 추시 및 문묘에 배향 
-ㄷ. 향약구급방 간행</t>
+          <t>ㄱ. 국자감을 국학으로 개칭 
+ㄴ. 서적포 설치 
+ㄷ. 원 세조 고려에 불개토풍 원칙 선언</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 946년 : 정종 - 서경 천도 실패
-ㄴ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
-ㄷ. 1236년 : 고종 - 향약구급방 간행
+          <t xml:space="preserve">ㄴ. 1101년 : 숙종 - 서적포 설치
+ㄷ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
+ㄱ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
 </t>
         </is>
       </c>
@@ -1399,21 +1398,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ㄱ. 7대실록 완성 
-ㄴ. 요세의 백련사 결사 운동 
-ㄷ. 서경 천도 실패</t>
+          <t>ㄱ. 개경에 시전 설치 
+ㄴ. 도평의사사 건의로 무과 설치 
+ㄷ. 초조대장경 간행 시작</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 946년 : 정종 - 서경 천도 실패
-ㄱ. 1034년 : 덕종 - 7대실록 완성
-ㄴ. 1208년 : 희종 - 요세의 백련사 결사 운동
+          <t xml:space="preserve">ㄱ. 919년 : 태조 - 개경에 시전 설치
+ㄷ. 1011년 : 현종 - 초조대장경 간행 시작
+ㄴ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
 </t>
         </is>
       </c>
@@ -1421,21 +1420,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 봉사 10조 저술 
-ㄴ. 귀법사 창건 
-ㄷ. 도평의사사 건의로 무과 설치</t>
+          <t>ㄱ. 조위총의 난 
+ㄴ. 원나라의 정동행성 설치 
+ㄷ. 황무지 개간 규정 마련</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 963년 : 광종 - 귀법사 창건
-ㄱ. 1196년 : 명종 - 최충헌의 봉사 10조 저술
-ㄷ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
+          <t xml:space="preserve">ㄷ. 963년 : 광종 - 황무지 개간 규정 마련
+ㄱ. 1174년 : 명종 - 조위총의 난
+ㄴ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
 </t>
         </is>
       </c>
@@ -1443,21 +1442,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투 
-ㄴ. 지눌의 수선사 결사 운동 
-ㄷ. 초조대장경 간행 시작</t>
+          <t>ㄱ. 원나라의 1차 일본 원정 
+ㄴ. 노비안검법 실시 
+ㄷ. 이성계의 황산대첩</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1011년 : 현종 - 초조대장경 간행 시작
-ㄴ. 1204년 : 신종 - 지눌의 수선사 결사 운동
-ㄱ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
+          <t xml:space="preserve">ㄴ. 956년 : 광종 - 노비안검법 실시
+ㄱ. 1274년 : 충렬왕 - 원나라의 1차 일본 원정
+ㄷ. 1380년 : 우왕 - 이성계의 황산대첩
 </t>
         </is>
       </c>
@@ -1465,21 +1464,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ㄱ. 원나라의 1차 일본 원정 
-ㄴ. 정치도감 설치 
-ㄷ. 홍건적의 2차 침입 및 개경 함락</t>
+          <t>ㄱ. 정세운 이방실 개경 수복 
+ㄴ. 원나라의 정동행성 설치 
+ㄷ. 위화도 회군</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1274년 : 충렬왕 - 원나라의 1차 일본 원정
-ㄴ. 1347년 : 충목왕 - 정치도감 설치
-ㄷ. 1361년 : 공민왕 - 홍건적의 2차 침입 및 개경 함락
+          <t xml:space="preserve">ㄴ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
+ㄱ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
+ㄷ. 1388년 : 우왕 - 위화도 회군
 </t>
         </is>
       </c>
@@ -1487,21 +1486,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골과 강화 체결 
-ㄴ. 구제도감 설치 
-ㄷ. 정지의 관음포 대첩</t>
+          <t>ㄱ. 황무지 개간 규정 마련 
+ㄴ. 거란의 2차 침입 
+ㄷ. 청연각 보문각 설치</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1109년 : 예종 - 구제도감 설치
-ㄱ. 1259년 : 고종 - 몽골과 강화 체결
-ㄷ. 1383년 : 우왕 - 정지의 관음포 대첩
+          <t xml:space="preserve">ㄱ. 963년 : 광종 - 황무지 개간 규정 마련
+ㄴ. 1010년 : 현종 - 거란의 2차 침입
+ㄷ. 1116년 : 예종 - 청연각 보문각 설치
 </t>
         </is>
       </c>
@@ -1509,9 +1508,9 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ㄱ. 참설직 설치 
-ㄴ. 6위 설치 
-ㄷ. 최충헌의 교정도감 설치</t>
+          <t>ㄱ. 이제현 역사서 사략 저술 
+ㄴ. 강동의 역 
+ㄷ. 이규보의 동국이상국집 편찬</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1521,9 +1520,9 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 995년 : 성종 - 6위 설치
-ㄷ. 1209년 : 희종 - 최충헌의 교정도감 설치
-ㄱ. 1354년 : 공민왕 - 참설직 설치
+          <t xml:space="preserve">ㄴ. 1219년 : 고종 - 강동의 역
+ㄷ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
+ㄱ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
 </t>
         </is>
       </c>
@@ -1531,21 +1530,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ㄱ. 승과제도 실시 
-ㄴ. 이자겸의 금 사대관계 수용 
-ㄷ. 강조의 정변</t>
+          <t>ㄱ. 대요수국 2차 침입 
+ㄴ. 이의민 집권 
+ㄷ. 이자겸의 금 사대관계 수용</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 958년 : 광종 - 승과제도 실시
-ㄷ. 1009년 : 목종 - 강조의 정변
-ㄴ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
+          <t xml:space="preserve">ㄷ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
+ㄴ. 1183년 : 명종 - 이의민 집권
+ㄱ. 1218년 : 고종 - 대요수국 2차 침입
 </t>
         </is>
       </c>
@@ -1553,21 +1552,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ㄱ. 신진 사대부 등용 위한 과거제 정비 
-ㄴ. 강동의 역 
-ㄷ. 정지의 관음포 대첩</t>
+          <t>ㄱ. 민지 본조편년강목 저술 
+ㄴ. 신진 사대부 등용 위한 과거제 정비 
+ㄷ. 김부식의 삼국사기 편찬</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1219년 : 고종 - 강동의 역
-ㄱ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
-ㄷ. 1383년 : 우왕 - 정지의 관음포 대첩
+          <t xml:space="preserve">ㄷ. 1145년 : 인종 - 김부식의 삼국사기 편찬
+ㄱ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
+ㄴ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
 </t>
         </is>
       </c>
@@ -1575,21 +1574,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ㄱ. 서경 천도 실패 
-ㄴ. 광군 설치 
-ㄷ. 원나라의 1차 일본 원정</t>
+          <t>ㄱ. 국학을 성균관으로 개칭 
+ㄴ. 왕규의 난 
+ㄷ. 이자겸의 난</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 946년 : 정종 - 서경 천도 실패
-ㄴ. 947년 : 정종 - 광군 설치
-ㄷ. 1274년 : 충렬왕 - 원나라의 1차 일본 원정
+          <t xml:space="preserve">ㄴ. 945년 : 혜종 - 왕규의 난
+ㄷ. 1126년 : 인종 - 이자겸의 난
+ㄱ. 1308년 : 충선왕 - 국학을 성균관으로 개칭
 </t>
         </is>
       </c>
@@ -1597,21 +1596,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ㄱ. 경대승 집권 
-ㄴ. 이자겸의 난 
-ㄷ. 김위제의 건의로 남경 건설 추진</t>
+          <t>ㄱ. 민지 본조편년강목 저술 
+ㄴ. 이의민 집권 
+ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1099년 : 숙종 - 김위제의 건의로 남경 건설 추진
-ㄴ. 1126년 : 인종 - 이자겸의 난
-ㄱ. 1179년 : 명종 - 경대승 집권
+          <t xml:space="preserve">ㄴ. 1183년 : 명종 - 이의민 집권
+ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
+ㄱ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
 </t>
         </is>
       </c>
@@ -1619,21 +1618,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ㄱ. 평양에 기자사당 건립 
-ㄴ. 정지의 관음포 대첩 
-ㄷ. 탐라총관부 수복</t>
+          <t>ㄱ. 도평의사사 건의로 무과 설치 
+ㄴ. 김부식의 삼국사기 편찬 
+ㄷ. 건원중보 발행</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1102년 : 숙종 - 평양에 기자사당 건립
-ㄷ. 1301년 : 충렬왕 - 탐라총관부 수복
-ㄴ. 1383년 : 우왕 - 정지의 관음포 대첩
+          <t xml:space="preserve">ㄷ. 996년 : 성종 - 건원중보 발행
+ㄴ. 1145년 : 인종 - 김부식의 삼국사기 편찬
+ㄱ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
 </t>
         </is>
       </c>
@@ -1641,21 +1640,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ㄱ. 윤관 별무반 조직 
-ㄴ. 이의민 집권 
-ㄷ. 섬학전 마련</t>
+          <t>ㄱ. 주현공부법 실시 
+ㄴ. 천리장성 축조 시작 
+ㄷ. 시정 전시과 시행</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1104년 : 숙종 - 윤관 별무반 조직
-ㄴ. 1183년 : 명종 - 이의민 집권
-ㄷ. 1304년 : 충렬왕 - 섬학전 마련
+          <t xml:space="preserve">ㄱ. 949년 : 광종 - 주현공부법 실시
+ㄷ. 976년 : 경종 - 시정 전시과 시행
+ㄴ. 1033년 : 덕종 - 천리장성 축조 시작
 </t>
         </is>
       </c>
@@ -1663,9 +1662,9 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ㄱ. 삼군도총제부 설치 
-ㄴ. 원나라 연호 폐지 및 관제 복구 
-ㄷ. 거란의 정안국 격파</t>
+          <t>ㄱ. 국학을 성균관으로 개칭 
+ㄴ. 결혼도감 설치 
+ㄷ. 훈요 10조 저술</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1675,9 +1674,9 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 986년 : 성종 - 거란의 정안국 격파
-ㄴ. 1356년 : 공민왕 - 원나라 연호 폐지 및 관제 복구
-ㄱ. 1391년 : 공양왕 - 삼군도총제부 설치
+          <t xml:space="preserve">ㄷ. 943년 : 태조 - 훈요 10조 저술
+ㄴ. 1274년 : 원종 - 결혼도감 설치
+ㄱ. 1308년 : 충선왕 - 국학을 성균관으로 개칭
 </t>
         </is>
       </c>
@@ -1685,21 +1684,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ㄱ. 기철 등 친원세력 숙청 
-ㄴ. 지눌의 수선사 결사 운동 
-ㄷ. 동북 9성 축조</t>
+          <t>ㄱ. 천자수모법 실시 
+ㄴ. 송나라 서긍의 고려도경 저술 
+ㄷ. 이규보의 동국이상국집 편찬</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1108년 : 예종 - 동북 9성 축조
-ㄴ. 1204년 : 신종 - 지눌의 수선사 결사 운동
-ㄱ. 1356년 : 공민왕 - 기철 등 친원세력 숙청
+          <t xml:space="preserve">ㄱ. 1039년 : 정종 - 천자수모법 실시
+ㄴ. 1123년 : 인종 - 송나라 서긍의 고려도경 저술
+ㄷ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
 </t>
         </is>
       </c>
@@ -1707,21 +1706,21 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ㄱ. 주현공부법 실시 
-ㄴ. 양현고 설치 
-ㄷ. 국자감을 국학으로 개칭</t>
+          <t>ㄱ. 홍건적의 2차 침입 및 개경 함락 
+ㄴ. 천리장성 완공 
+ㄷ. 최초로 지방관 파견</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 949년 : 광종 - 주현공부법 실시
-ㄴ. 1119년 : 예종 - 양현고 설치
-ㄷ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+          <t xml:space="preserve">ㄷ. 983년 : 성종 - 최초로 지방관 파견
+ㄴ. 1044년 : 정종 - 천리장성 완공
+ㄱ. 1361년 : 공민왕 - 홍건적의 2차 침입 및 개경 함락
 </t>
         </is>
       </c>
@@ -1729,21 +1728,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ㄱ. 건원중보 발행 
-ㄴ. 최우 서방 설치 
-ㄷ. 탐라총관부 수복</t>
+          <t>ㄱ. 이성계의 창왕 폐위 
+ㄴ. 이자겸의 금 사대관계 수용 
+ㄷ. 교장도감 설치</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 996년 : 성종 - 건원중보 발행
-ㄴ. 1227년 : 고종 - 최우 서방 설치
-ㄷ. 1301년 : 충렬왕 - 탐라총관부 수복
+          <t xml:space="preserve">ㄷ. 1086년 : 선종 - 교장도감 설치
+ㄴ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
+ㄱ. 1389년 : 창왕 - 이성계의 창왕 폐위
 </t>
         </is>
       </c>
@@ -1751,21 +1750,21 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ㄱ. 박위의 쓰시마 토벌 
-ㄴ. 몽골풍 폐지 
-ㄷ. 양현고 설치</t>
+          <t>ㄱ. 최우 서방 설치 
+ㄴ. 주현공부법 실시 
+ㄷ. 신진 사대부 등용 위한 과거제 정비</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1119년 : 예종 - 양현고 설치
-ㄴ. 1352년 : 공민왕 - 몽골풍 폐지
-ㄱ. 1389년 : 창왕 - 박위의 쓰시마 토벌
+          <t xml:space="preserve">ㄴ. 949년 : 광종 - 주현공부법 실시
+ㄱ. 1227년 : 고종 - 최우 서방 설치
+ㄷ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
 </t>
         </is>
       </c>
@@ -1773,21 +1772,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ㄱ. 최영의 홍산대첩 
-ㄴ. 서적원 설치 
-ㄷ. 역분전 지급</t>
+          <t>ㄱ. 몽골과 강화 체결 
+ㄴ. 경대승 집권 
+ㄷ. 서경 천도 실패</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 940년 : 태조 - 역분전 지급
-ㄱ. 1376년 : 우왕 - 최영의 홍산대첩
-ㄴ. 1392년 : 공양왕 - 서적원 설치
+          <t xml:space="preserve">ㄷ. 946년 : 정종 - 서경 천도 실패
+ㄴ. 1179년 : 명종 - 경대승 집권
+ㄱ. 1259년 : 고종 - 몽골과 강화 체결
 </t>
         </is>
       </c>
@@ -1795,21 +1794,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ㄱ. 원나라의 1차 일본 원정 
-ㄴ. 이자겸의 금 사대관계 수용 
-ㄷ. 양현고 설치</t>
+          <t>ㄱ. 정방 폐지(충선왕) 
+ㄴ. 도평의사사 건의로 무과 설치 
+ㄷ. 자제위 설치</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1119년 : 예종 - 양현고 설치
-ㄴ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
-ㄱ. 1274년 : 충렬왕 - 원나라의 1차 일본 원정
+          <t xml:space="preserve">ㄱ. 1298년 : 충선왕 - 정방 폐지(충선왕)
+ㄷ. 1372년 : 공민왕 - 자제위 설치
+ㄴ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
 </t>
         </is>
       </c>
@@ -1817,21 +1816,21 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ㄱ. 지원보초 유통 
-ㄴ. 자제위 설치 
-ㄷ. 삼군도총제부 설치</t>
+          <t>ㄱ. 최우 집권 
+ㄴ. 망이 망소이의 난 
+ㄷ. 초조대장경 및 교장 소실</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1278년 : 충렬왕 - 지원보초 유통
-ㄴ. 1372년 : 공민왕 - 자제위 설치
-ㄷ. 1391년 : 공양왕 - 삼군도총제부 설치
+          <t xml:space="preserve">ㄴ. 1176년 : 명종 - 망이 망소이의 난
+ㄱ. 1219년 : 고종 - 최우 집권
+ㄷ. 1232년 : 고종 - 초조대장경 및 교장 소실
 </t>
         </is>
       </c>
@@ -1839,21 +1838,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ㄱ. 국자감을 국학으로 개칭 
-ㄴ. 신진 사대부 등용 위한 과거제 정비 
-ㄷ. 과전법 실시</t>
+          <t>ㄱ. 최충의 9재 학당 설립 
+ㄴ. 송과 국교 수립 
+ㄷ. 최광수의 난</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
-ㄴ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
-ㄷ. 1391년 : 공양왕 - 과전법 실시
+          <t xml:space="preserve">ㄴ. 962년 : 광종 - 송과 국교 수립
+ㄱ. 1055년 : 문종 - 최충의 9재 학당 설립
+ㄷ. 1217년 : 고종 - 최광수의 난
 </t>
         </is>
       </c>
@@ -1861,21 +1860,21 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ㄱ. 훈요 10조 저술 
-ㄴ. 이성계의 황산대첩 
-ㄷ. 청연각 보문각 설치</t>
+          <t>ㄱ. 최우 집권 
+ㄴ. 자제위 설치 
+ㄷ. 최초로 지방관 파견</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 943년 : 태조 - 훈요 10조 저술
-ㄷ. 1116년 : 예종 - 청연각 보문각 설치
-ㄴ. 1380년 : 우왕 - 이성계의 황산대첩
+          <t xml:space="preserve">ㄷ. 983년 : 성종 - 최초로 지방관 파견
+ㄱ. 1219년 : 고종 - 최우 집권
+ㄴ. 1372년 : 공민왕 - 자제위 설치
 </t>
         </is>
       </c>
@@ -1883,9 +1882,9 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ㄱ. 7대실록 완성 
-ㄴ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투 
-ㄷ. 향약구급방 간행</t>
+          <t>ㄱ. 최우 정방 설치 
+ㄴ. 황룡사 및 황룡사 9층 목탑 소실 
+ㄷ. 몽골과 강화 체결</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1895,9 +1894,9 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1034년 : 덕종 - 7대실록 완성
-ㄴ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
-ㄷ. 1236년 : 고종 - 향약구급방 간행
+          <t xml:space="preserve">ㄱ. 1225년 : 고종 - 최우 정방 설치
+ㄴ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
+ㄷ. 1259년 : 고종 - 몽골과 강화 체결
 </t>
         </is>
       </c>
@@ -1905,21 +1904,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ㄱ. 교장도감 설치 
-ㄴ. 재조대장경 간행 시작 
-ㄷ. 강조의 정변</t>
+          <t>ㄱ. 위화도 회군 
+ㄴ. 주현공부법 실시 
+ㄷ. 결혼도감 설치</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1009년 : 목종 - 강조의 정변
-ㄱ. 1086년 : 선종 - 교장도감 설치
-ㄴ. 1235년 : 고종 - 재조대장경 간행 시작
+          <t xml:space="preserve">ㄴ. 949년 : 광종 - 주현공부법 실시
+ㄷ. 1274년 : 원종 - 결혼도감 설치
+ㄱ. 1388년 : 우왕 - 위화도 회군
 </t>
         </is>
       </c>
@@ -1927,21 +1926,21 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골과 강화 체결 
-ㄴ. 지방 12목에 경학박사 의학박사 파견 
-ㄷ. 최치원 문창후에 추시 및 문묘에 배향</t>
+          <t>ㄱ. 이규보의 동국이상국집 편찬 
+ㄴ. 결혼도감 설치 
+ㄷ. 천자수모법 실시</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 987년 : 성종 - 지방 12목에 경학박사 의학박사 파견
-ㄷ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
-ㄱ. 1259년 : 고종 - 몽골과 강화 체결
+          <t xml:space="preserve">ㄷ. 1039년 : 정종 - 천자수모법 실시
+ㄱ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
+ㄴ. 1274년 : 원종 - 결혼도감 설치
 </t>
         </is>
       </c>
@@ -1949,21 +1948,21 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ㄱ. 향약구급방 간행 
-ㄴ. 고려 건국 
-ㄷ. 홍건적의 1차 침입 및 서경 함락</t>
+          <t>ㄱ. 주전도감 설치 
+ㄴ. 황룡사 및 황룡사 9층 목탑 소실 
+ㄷ. 이자겸의 난</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 918년 : 태조 - 고려 건국
-ㄱ. 1236년 : 고종 - 향약구급방 간행
-ㄷ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
+          <t xml:space="preserve">ㄱ. 1097년 : 숙종 - 주전도감 설치
+ㄷ. 1126년 : 인종 - 이자겸의 난
+ㄴ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
 </t>
         </is>
       </c>
@@ -1971,9 +1970,9 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ㄱ. 역분전 지급 
-ㄴ. 이성계의 창왕 폐위 
-ㄷ. 이승휴 제왕운기 저술</t>
+          <t>ㄱ. 만부교 사건 
+ㄴ. 의천의 국청사 창건 및 천태종 창시 
+ㄷ. 훈요 10조 저술</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1983,9 +1982,9 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 940년 : 태조 - 역분전 지급
-ㄷ. 1287년 : 충렬왕 - 이승휴 제왕운기 저술
-ㄴ. 1389년 : 창왕 - 이성계의 창왕 폐위
+          <t xml:space="preserve">ㄱ. 942년 : 태조 - 만부교 사건
+ㄷ. 943년 : 태조 - 훈요 10조 저술
+ㄴ. 1097년 : 숙종 - 의천의 국청사 창건 및 천태종 창시
 </t>
         </is>
       </c>
@@ -1993,21 +1992,21 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ㄱ. 기인선상법 실시 
-ㄴ. 양현고 설치 
-ㄷ. 이규보의 동국이상국집 편찬</t>
+          <t>ㄱ. 후삼국 통일 
+ㄴ. 도평의사사 건의로 무과 설치 
+ㄷ. 정치도감 설치</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1077년 : 문종 - 기인선상법 실시
-ㄴ. 1119년 : 예종 - 양현고 설치
-ㄷ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
+          <t xml:space="preserve">ㄱ. 936년 : 태조 - 후삼국 통일
+ㄷ. 1347년 : 충목왕 - 정치도감 설치
+ㄴ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
 </t>
         </is>
       </c>
@@ -2015,9 +2014,9 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ㄱ. 초조대장경 간행 시작 
-ㄴ. 과거제 실시 
-ㄷ. 광군 설치</t>
+          <t>ㄱ. 정방 최종 폐지 
+ㄴ. 이자겸의 금 사대관계 수용 
+ㄷ. 7대실록 완성</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2027,9 +2026,9 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 947년 : 정종 - 광군 설치
-ㄴ. 958년 : 광종 - 과거제 실시
-ㄱ. 1011년 : 현종 - 초조대장경 간행 시작
+          <t xml:space="preserve">ㄷ. 1034년 : 덕종 - 7대실록 완성
+ㄴ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
+ㄱ. 1388년 : 창왕 - 정방 최종 폐지
 </t>
         </is>
       </c>
@@ -2037,21 +2036,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ㄱ. 승과제도 실시 
-ㄴ. 역분전 지급 
-ㄷ. 동북 9성 축조</t>
+          <t xml:space="preserve">ㄱ. 유신지교 15조 발표 
+ㄴ. 상정고금예문 인쇄 
+ㄷ. 몽골의 3차 침입 </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 940년 : 태조 - 역분전 지급
-ㄱ. 958년 : 광종 - 승과제도 실시
-ㄷ. 1108년 : 예종 - 동북 9성 축조
+          <t xml:space="preserve">ㄱ. 1127년 : 인종 - 유신지교 15조 발표
+ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
+ㄷ. 1235년 : 고종 - 몽골의 3차 침입 
 </t>
         </is>
       </c>
@@ -2059,21 +2058,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ㄱ. 유신지교 15조 발표 
-ㄴ. 서경 천도 실패 
-ㄷ. 이연년의 난</t>
+          <t>ㄱ. 거란의 정안국 격파 
+ㄴ. 김부식의 삼국사기 편찬 
+ㄷ. 원 세조 고려에 불개토풍 원칙 선언</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 946년 : 정종 - 서경 천도 실패
-ㄱ. 1127년 : 인종 - 유신지교 15조 발표
-ㄷ. 1237년 : 고종 - 이연년의 난
+          <t xml:space="preserve">ㄱ. 986년 : 성종 - 거란의 정안국 격파
+ㄴ. 1145년 : 인종 - 김부식의 삼국사기 편찬
+ㄷ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
 </t>
         </is>
       </c>
@@ -2081,21 +2080,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ㄱ. 홍건적의 1차 침입 및 서경 함락 
-ㄴ. 송악으로 천도 
-ㄷ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투</t>
+          <t>ㄱ. 최우 서방 설치 
+ㄴ. 최치원 문창후에 추시 및 문묘에 배향 
+ㄷ. 훈요 10조 저술</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 919년 : 태조 - 송악으로 천도
-ㄷ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
-ㄱ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
+          <t xml:space="preserve">ㄷ. 943년 : 태조 - 훈요 10조 저술
+ㄴ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄱ. 1227년 : 고종 - 최우 서방 설치
 </t>
         </is>
       </c>
@@ -2103,21 +2102,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ㄱ. 정방 폐지(공민왕) 
-ㄴ. 이규보의 동국이상국집 편찬 
-ㄷ. 신진 사대부 등용 위한 과거제 정비</t>
+          <t>ㄱ. 교장도감 설치 
+ㄴ. 노비안검법 실시 
+ㄷ. 후삼국 통일</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
-ㄱ. 1352년 : 공민왕 - 정방 폐지(공민왕)
-ㄷ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
+          <t xml:space="preserve">ㄷ. 936년 : 태조 - 후삼국 통일
+ㄴ. 956년 : 광종 - 노비안검법 실시
+ㄱ. 1086년 : 선종 - 교장도감 설치
 </t>
         </is>
       </c>
@@ -2125,21 +2124,21 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ㄱ. 최치원 문창후에 추시 및 문묘에 배향 
-ㄴ. 삼군도총제부 설치 
-ㄷ. 조위총의 난</t>
+          <t>ㄱ. 자제위 설치 
+ㄴ. 이제현 역사서 사략 저술 
+ㄷ. 명나라 역법인 태통력 채용</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
-ㄷ. 1174년 : 명종 - 조위총의 난
-ㄴ. 1391년 : 공양왕 - 삼군도총제부 설치
+          <t xml:space="preserve">ㄴ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
+ㄷ. 1370년 : 공민왕 - 명나라 역법인 태통력 채용
+ㄱ. 1372년 : 공민왕 - 자제위 설치
 </t>
         </is>
       </c>
@@ -2147,21 +2146,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 봉사 10조 저술 
-ㄴ. 초조대장경 간행 시작 
-ㄷ. 별무반의 여진 정벌</t>
+          <t>ㄱ. 최충헌의 도방 재건 및 확대 
+ㄴ. 청연각 보문각 설치 
+ㄷ. 녹과전 실시</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1011년 : 현종 - 초조대장경 간행 시작
-ㄷ. 1107년 : 예종 - 별무반의 여진 정벌
-ㄱ. 1196년 : 명종 - 최충헌의 봉사 10조 저술
+          <t xml:space="preserve">ㄴ. 1116년 : 예종 - 청연각 보문각 설치
+ㄱ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
+ㄷ. 1271년 : 원종 - 녹과전 실시
 </t>
         </is>
       </c>
@@ -2169,9 +2168,9 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ㄱ. 직지심체요절 간행 
-ㄴ. 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴 
-ㄷ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투</t>
+          <t>ㄱ. 충선왕 원나라에 만권당 설치 
+ㄴ. 최의 피살 및 최씨정권 붕괴 
+ㄷ. 이의민 집권</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2181,9 +2180,9 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
-ㄴ. 1253년 : 고종 - 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
-ㄱ. 1377년 : 우왕 - 직지심체요절 간행
+          <t xml:space="preserve">ㄷ. 1183년 : 명종 - 이의민 집권
+ㄴ. 1258년 : 고종 - 최의 피살 및 최씨정권 붕괴
+ㄱ. 1314년 : 충숙왕 - 충선왕 원나라에 만권당 설치
 </t>
         </is>
       </c>
@@ -2191,21 +2190,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ㄱ. 이규보의 동국이상국집 편찬 
-ㄴ. 남경 설치 
-ㄷ. 화통도감 설치</t>
+          <t>ㄱ. 이성계의 요동 공격으로 요양 일시 점령 
+ㄴ. 정지의 관음포 대첩 
+ㄷ. 최충헌의 교정도감 설치</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1067년 : 문종 - 남경 설치
-ㄱ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
-ㄷ. 1377년 : 우왕 - 화통도감 설치
+          <t xml:space="preserve">ㄷ. 1209년 : 희종 - 최충헌의 교정도감 설치
+ㄱ. 1370년 : 공민왕 - 이성계의 요동 공격으로 요양 일시 점령
+ㄴ. 1383년 : 우왕 - 정지의 관음포 대첩
 </t>
         </is>
       </c>
@@ -2213,21 +2212,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ㄱ. 후삼국 통일 
-ㄴ. 최승로의 시무 28조 저술 
-ㄷ. 홍건적의 1차 침입 및 서경 함락</t>
+          <t>ㄱ. 정치도감 설치 
+ㄴ. 이제현 역사서 사략 저술 
+ㄷ. 향약구급방 간행</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 936년 : 태조 - 후삼국 통일
-ㄴ. 982년 : 성종 - 최승로의 시무 28조 저술
-ㄷ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
+          <t xml:space="preserve">ㄷ. 1236년 : 고종 - 향약구급방 간행
+ㄱ. 1347년 : 충목왕 - 정치도감 설치
+ㄴ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
 </t>
         </is>
       </c>
@@ -2235,21 +2234,21 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌 집권 
-ㄴ. 몽골 사신 저고여 피살 
-ㄷ. 이의민 집권</t>
+          <t>ㄱ. 고려 건국 
+ㄴ. 최무선의 진포대첩 
+ㄷ. 김보당의 난</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1183년 : 명종 - 이의민 집권
-ㄱ. 1196년 : 명종 - 최충헌 집권
-ㄴ. 1225년 : 고종 - 몽골 사신 저고여 피살
+          <t xml:space="preserve">ㄱ. 918년 : 태조 - 고려 건국
+ㄷ. 1173년 : 명종 - 김보당의 난
+ㄴ. 1380년 : 우왕 - 최무선의 진포대첩
 </t>
         </is>
       </c>
@@ -2257,21 +2256,21 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ㄱ. 최초로 지방관 파견 
-ㄴ. 성균관 순수 유학교육기관으로 개편 
-ㄷ. 천리장성 완공</t>
+          <t>ㄱ. 유신지교 15조 발표 
+ㄴ. 이자겸의 난 
+ㄷ. 최충헌의 도방 재건 및 확대</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 983년 : 성종 - 최초로 지방관 파견
-ㄷ. 1044년 : 정종 - 천리장성 완공
-ㄴ. 1367년 : 공민왕 - 성균관 순수 유학교육기관으로 개편
+          <t xml:space="preserve">ㄴ. 1126년 : 인종 - 이자겸의 난
+ㄱ. 1127년 : 인종 - 유신지교 15조 발표
+ㄷ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
 </t>
         </is>
       </c>
@@ -2279,21 +2278,21 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ㄱ. 정몽주 암살 
-ㄴ. 도평의사사 건의로 무과 설치 
-ㄷ. 왕규의 난</t>
+          <t>ㄱ. 7대실록 편찬 시작 
+ㄴ. 홍건적의 1차 침입 및 서경 함락 
+ㄷ. 이비 패좌의 난</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 945년 : 혜종 - 왕규의 난
-ㄴ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
-ㄱ. 1392년 : 공양왕 - 정몽주 암살
+          <t xml:space="preserve">ㄱ. 1013년 : 현종 - 7대실록 편찬 시작
+ㄷ. 1202년 : 신종 - 이비 패좌의 난
+ㄴ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
 </t>
         </is>
       </c>
@@ -2301,21 +2300,21 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ㄱ. 정치도감 설치 
-ㄴ. 거란의 3차 침입 
-ㄷ. 전주 관노의 난</t>
+          <t>ㄱ. 김부식의 삼국사기 편찬 
+ㄴ. 정중부 집권 
+ㄷ. 지눌의 수선사 결사 운동</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1018년 : 현종 - 거란의 3차 침입
-ㄷ. 1182년 : 명종 - 전주 관노의 난
-ㄱ. 1347년 : 충목왕 - 정치도감 설치
+          <t xml:space="preserve">ㄱ. 1145년 : 인종 - 김부식의 삼국사기 편찬
+ㄴ. 1174년 : 명종 - 정중부 집권
+ㄷ. 1204년 : 신종 - 지눌의 수선사 결사 운동
 </t>
         </is>
       </c>
@@ -2323,21 +2322,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ㄱ. 거란의 1차 침입 및 서희의 강동 6주 획득 
-ㄴ. 개경에 나성 축조 
-ㄷ. 천자수모법 실시</t>
+          <t>ㄱ. 탐라총관부 수복 
+ㄴ. 최충의 9재 학당 설립 
+ㄷ. 도병마사 도평의사사로 개칭</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 993년 : 성종 - 거란의 1차 침입 및 서희의 강동 6주 획득
-ㄴ. 1029년 : 현종 - 개경에 나성 축조
-ㄷ. 1039년 : 정종 - 천자수모법 실시
+          <t xml:space="preserve">ㄴ. 1055년 : 문종 - 최충의 9재 학당 설립
+ㄷ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
+ㄱ. 1301년 : 충렬왕 - 탐라총관부 수복
 </t>
         </is>
       </c>
@@ -2345,21 +2344,21 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ㄱ. 국자감을 국학으로 개칭 
-ㄴ. 정치도감 설치 
-ㄷ. 사림원 설치</t>
+          <t>ㄱ. 도병마사 도평의사사로 개칭 
+ㄴ. 개정 전시과 시행 
+ㄷ. 거란의 정안국 격파</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
-ㄷ. 1298년 : 충선왕 - 사림원 설치
-ㄴ. 1347년 : 충목왕 - 정치도감 설치
+          <t xml:space="preserve">ㄷ. 986년 : 성종 - 거란의 정안국 격파
+ㄴ. 998년 : 목종 - 개정 전시과 시행
+ㄱ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
 </t>
         </is>
       </c>
@@ -2367,21 +2366,21 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ㄱ. 제위보 설치 
-ㄴ. 지눌의 수선사 결사 운동 
-ㄷ. 홍건적의 1차 침입 및 서경 함락</t>
+          <t>ㄱ. 결혼도감 설치 
+ㄴ. 귀주대첩 
+ㄷ. 국자감을 국학으로 개칭</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 963년 : 광종 - 제위보 설치
-ㄴ. 1204년 : 신종 - 지눌의 수선사 결사 운동
-ㄷ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
+          <t xml:space="preserve">ㄴ. 1019년 : 현종 - 귀주대첩
+ㄱ. 1274년 : 원종 - 결혼도감 설치
+ㄷ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
 </t>
         </is>
       </c>
@@ -2389,21 +2388,21 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ㄱ. 원 세조 고려에 불개토풍 원칙 선언 
-ㄴ. 천리장성 축조 시작 
-ㄷ. 평양에 기자사당 건립</t>
+          <t>ㄱ. 경대승 집권 
+ㄴ. 정지의 관음포 대첩 
+ㄷ. 송과 국교 수립</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1033년 : 덕종 - 천리장성 축조 시작
-ㄷ. 1102년 : 숙종 - 평양에 기자사당 건립
-ㄱ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
+          <t xml:space="preserve">ㄷ. 962년 : 광종 - 송과 국교 수립
+ㄱ. 1179년 : 명종 - 경대승 집권
+ㄴ. 1383년 : 우왕 - 정지의 관음포 대첩
 </t>
         </is>
       </c>
@@ -2411,21 +2410,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ㄱ. 이승휴 제왕운기 저술 
-ㄴ. 이성계의 창왕 폐위 
-ㄷ. 7대실록 편찬 시작</t>
+          <t>ㄱ. 건원중보 발행 
+ㄴ. 원 세조 고려에 불개토풍 원칙 선언 
+ㄷ. 개경에 나성 축조</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1013년 : 현종 - 7대실록 편찬 시작
-ㄱ. 1287년 : 충렬왕 - 이승휴 제왕운기 저술
-ㄴ. 1389년 : 창왕 - 이성계의 창왕 폐위
+          <t xml:space="preserve">ㄱ. 996년 : 성종 - 건원중보 발행
+ㄷ. 1029년 : 현종 - 개경에 나성 축조
+ㄴ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
 </t>
         </is>
       </c>
@@ -2433,21 +2432,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ㄱ. 만부교 사건 
-ㄴ. 정지의 관음포 대첩 
-ㄷ. 찰리변위도감 설치</t>
+          <t>ㄱ. 건원중보 발행 
+ㄴ. 직지심체요절 간행 
+ㄷ. 승과제도 실시</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 942년 : 태조 - 만부교 사건
-ㄷ. 1318년 : 충숙왕 - 찰리변위도감 설치
-ㄴ. 1383년 : 우왕 - 정지의 관음포 대첩
+          <t xml:space="preserve">ㄷ. 958년 : 광종 - 승과제도 실시
+ㄱ. 996년 : 성종 - 건원중보 발행
+ㄴ. 1377년 : 우왕 - 직지심체요절 간행
 </t>
         </is>
       </c>
@@ -2455,21 +2454,21 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투 
-ㄴ. 거란의 3차 침입 
-ㄷ. 공복 제정</t>
+          <t>ㄱ. 대요수국 1차 침입 
+ㄴ. 학보 설치 
+ㄷ. 참설직 설치</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 960년 : 광종 - 공복 제정
-ㄴ. 1018년 : 현종 - 거란의 3차 침입
-ㄱ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
+          <t xml:space="preserve">ㄴ. 930년 : 태조 - 학보 설치
+ㄱ. 1217년 : 고종 - 대요수국 1차 침입
+ㄷ. 1354년 : 공민왕 - 참설직 설치
 </t>
         </is>
       </c>
@@ -2477,21 +2476,21 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ㄱ. 왕규의 난 
-ㄴ. 김위제의 건의로 남경 건설 추진 
-ㄷ. 전주 관노의 난</t>
+          <t>ㄱ. 국학을 성균관으로 개칭 
+ㄴ. 훈요 10조 저술 
+ㄷ. 교장도감 설치</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 945년 : 혜종 - 왕규의 난
-ㄴ. 1099년 : 숙종 - 김위제의 건의로 남경 건설 추진
-ㄷ. 1182년 : 명종 - 전주 관노의 난
+          <t xml:space="preserve">ㄴ. 943년 : 태조 - 훈요 10조 저술
+ㄷ. 1086년 : 선종 - 교장도감 설치
+ㄱ. 1308년 : 충선왕 - 국학을 성균관으로 개칭
 </t>
         </is>
       </c>
@@ -2499,9 +2498,9 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ㄱ. 최영의 홍산대첩 
-ㄴ. 황룡사 및 황룡사 9층 목탑 소실 
-ㄷ. 강조의 정변</t>
+          <t>ㄱ. 민지 본조편년강목 저술 
+ㄴ. 섬학전 마련 
+ㄷ. 왕규의 난</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2511,9 +2510,9 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1009년 : 목종 - 강조의 정변
-ㄴ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
-ㄱ. 1376년 : 우왕 - 최영의 홍산대첩
+          <t xml:space="preserve">ㄷ. 945년 : 혜종 - 왕규의 난
+ㄴ. 1304년 : 충렬왕 - 섬학전 마련
+ㄱ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
 </t>
         </is>
       </c>
@@ -2521,21 +2520,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ㄱ. 원나라의 정동행성 설치 
-ㄴ. 평양에 기자사당 건립 
-ㄷ. 흑창 설치</t>
+          <t>ㄱ. 지눌의 수선사 결사 운동 
+ㄴ. 최무선의 진포대첩 
+ㄷ. 전주 관노의 난</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 918년 : 태조 - 흑창 설치
-ㄴ. 1102년 : 숙종 - 평양에 기자사당 건립
-ㄱ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
+          <t xml:space="preserve">ㄷ. 1182년 : 명종 - 전주 관노의 난
+ㄱ. 1204년 : 신종 - 지눌의 수선사 결사 운동
+ㄴ. 1380년 : 우왕 - 최무선의 진포대첩
 </t>
         </is>
       </c>
@@ -2543,9 +2542,9 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ㄱ. 동녕부 수복 
-ㄴ. 망이 망소이의 난 
-ㄷ. 송나라 서긍의 고려도경 저술</t>
+          <t>ㄱ. 사심관제도 폐지 
+ㄴ. 김보당의 난 
+ㄷ. 경정 전시과 시행</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2555,9 +2554,9 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1123년 : 인종 - 송나라 서긍의 고려도경 저술
-ㄴ. 1176년 : 명종 - 망이 망소이의 난
-ㄱ. 1290년 : 충렬왕 - 동녕부 수복
+          <t xml:space="preserve">ㄷ. 1076년 : 문종 - 경정 전시과 시행
+ㄴ. 1173년 : 명종 - 김보당의 난
+ㄱ. 1318년 : 충숙왕 - 사심관제도 폐지
 </t>
         </is>
       </c>
@@ -2565,9 +2564,9 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ㄱ. 최승로의 시무 28조 저술 
-ㄴ. 귀법사 창건 
-ㄷ. 이성계의 요동 공격으로 요양 일시 점령</t>
+          <t>ㄱ. 도병마사 도평의사사로 개칭 
+ㄴ. 최광수의 난 
+ㄷ. 최무선의 진포대첩</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2577,9 +2576,9 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 963년 : 광종 - 귀법사 창건
-ㄱ. 982년 : 성종 - 최승로의 시무 28조 저술
-ㄷ. 1370년 : 공민왕 - 이성계의 요동 공격으로 요양 일시 점령
+          <t xml:space="preserve">ㄴ. 1217년 : 고종 - 최광수의 난
+ㄱ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
+ㄷ. 1380년 : 우왕 - 최무선의 진포대첩
 </t>
         </is>
       </c>
@@ -2587,21 +2586,21 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ㄱ. 양현고 설치 
-ㄴ. 도병마사 도평의사사로 개칭 
-ㄷ. 상평창 설치</t>
+          <t>ㄱ. 직지심체요절 간행 
+ㄴ. 건원중보 발행 
+ㄷ. 지눌의 수선사 결사 운동</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 993년 : 성종 - 상평창 설치
-ㄱ. 1119년 : 예종 - 양현고 설치
-ㄴ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
+          <t xml:space="preserve">ㄴ. 996년 : 성종 - 건원중보 발행
+ㄷ. 1204년 : 신종 - 지눌의 수선사 결사 운동
+ㄱ. 1377년 : 우왕 - 직지심체요절 간행
 </t>
         </is>
       </c>
@@ -2609,21 +2608,21 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ㄱ. 이연년의 난 
-ㄴ. 지원보초 유통 
-ㄷ. 왕규의 난</t>
+          <t>ㄱ. 삼복제 실시 
+ㄴ. 최승로의 시무 28조 저술 
+ㄷ. 정지의 관음포 대첩</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 945년 : 혜종 - 왕규의 난
-ㄱ. 1237년 : 고종 - 이연년의 난
-ㄴ. 1278년 : 충렬왕 - 지원보초 유통
+          <t xml:space="preserve">ㄴ. 982년 : 성종 - 최승로의 시무 28조 저술
+ㄱ. 1057년 : 문종 - 삼복제 실시
+ㄷ. 1383년 : 우왕 - 정지의 관음포 대첩
 </t>
         </is>
       </c>
@@ -2631,21 +2630,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ㄱ. 도평의사사 건의로 무과 설치 
-ㄴ. 최우 서방 설치 
-ㄷ. 동녕부 설치</t>
+          <t>ㄱ. 남경 설치 
+ㄴ. 명나라 역법인 태통력 채용 
+ㄷ. 안향 성리학 전래</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1227년 : 고종 - 최우 서방 설치
-ㄷ. 1270년 : 원종 - 동녕부 설치
-ㄱ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
+          <t xml:space="preserve">ㄱ. 1067년 : 문종 - 남경 설치
+ㄷ. 1290년 : 충렬왕 - 안향 성리학 전래
+ㄴ. 1370년 : 공민왕 - 명나라 역법인 태통력 채용
 </t>
         </is>
       </c>

--- a/학습자료/순서배열/고려_연도(왕)_연도별모음_문제.xlsx
+++ b/학습자료/순서배열/고려_연도(왕)_연도별모음_문제.xlsx
@@ -453,21 +453,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 봉사 10조 저술 
-ㄴ. 저화 발행 
-ㄷ. 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴</t>
+          <t>ㄱ. 동북 9성 축조 
+ㄴ. 혜민국 설치 
+ㄷ. 최초로 지방관 파견</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1196년 : 명종 - 최충헌의 봉사 10조 저술
-ㄷ. 1253년 : 고종 - 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
-ㄴ. 1391년 : 공양왕 - 저화 발행
+          <t xml:space="preserve">ㄷ. 983년 : 성종 - 최초로 지방관 파견
+ㄱ. 1108년 : 예종 - 동북 9성 축조
+ㄴ. 1112년 : 예종 - 혜민국 설치
 </t>
         </is>
       </c>
@@ -475,21 +475,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 도방 재건 및 확대 
-ㄴ. 자제위 설치 
-ㄷ. 훈요 10조 저술</t>
+          <t>ㄱ. 섬학전 마련 
+ㄴ. 천리장성 완공 
+ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 943년 : 태조 - 훈요 10조 저술
-ㄱ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
-ㄴ. 1372년 : 공민왕 - 자제위 설치
+          <t xml:space="preserve">ㄴ. 1044년 : 정종 - 천리장성 완공
+ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
+ㄱ. 1304년 : 충렬왕 - 섬학전 마련
 </t>
         </is>
       </c>
@@ -497,9 +497,9 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ㄱ. 거란의 2차 침입 
-ㄴ. 송나라 서긍의 고려도경 저술 
-ㄷ. 원나라의 정동행성 설치</t>
+          <t>ㄱ. 후삼국 통일 
+ㄴ. 강감찬의 흥화진 전투 
+ㄷ. 정중부 집권</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -509,9 +509,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1010년 : 현종 - 거란의 2차 침입
-ㄴ. 1123년 : 인종 - 송나라 서긍의 고려도경 저술
-ㄷ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
+          <t xml:space="preserve">ㄱ. 936년 : 태조 - 후삼국 통일
+ㄴ. 1018년 : 현종 - 강감찬의 흥화진 전투
+ㄷ. 1174년 : 명종 - 정중부 집권
 </t>
         </is>
       </c>
@@ -519,21 +519,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ㄱ. 노비안검법 실시 
-ㄴ. 성균관 순수 유학교육기관으로 개편 
-ㄷ. 최영의 이인임 일파 축출</t>
+          <t>ㄱ. 민지 본조편년강목 저술 
+ㄴ. 찰리변위도감 설치 
+ㄷ. 시정 전시과 시행</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 956년 : 광종 - 노비안검법 실시
-ㄴ. 1367년 : 공민왕 - 성균관 순수 유학교육기관으로 개편
-ㄷ. 1388년 : 우왕 - 최영의 이인임 일파 축출
+          <t xml:space="preserve">ㄷ. 976년 : 경종 - 시정 전시과 시행
+ㄱ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
+ㄴ. 1318년 : 충숙왕 - 찰리변위도감 설치
 </t>
         </is>
       </c>
@@ -541,21 +541,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ㄱ. 최우의 강화도 천도 
-ㄴ. 국자감을 국학으로 개칭 
-ㄷ. 사심관제도 폐지</t>
+          <t>ㄱ. 원나라의 정동행성 설치 
+ㄴ. 삼복제 실시 
+ㄷ. 혜민국 설치</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1232년 : 고종 - 최우의 강화도 천도
-ㄴ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
-ㄷ. 1318년 : 충숙왕 - 사심관제도 폐지
+          <t xml:space="preserve">ㄴ. 1057년 : 문종 - 삼복제 실시
+ㄷ. 1112년 : 예종 - 혜민국 설치
+ㄱ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
 </t>
         </is>
       </c>
@@ -563,21 +563,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ㄱ. 최무선의 진포대첩 
-ㄴ. 상평창 설치 
-ㄷ. 동녕부 수복</t>
+          <t>ㄱ. 서경에 대화궁 건립 
+ㄴ. 원 세조 고려에 불개토풍 원칙 선언 
+ㄷ. 망이 망소이의 난</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 993년 : 성종 - 상평창 설치
-ㄷ. 1290년 : 충렬왕 - 동녕부 수복
-ㄱ. 1380년 : 우왕 - 최무선의 진포대첩
+          <t xml:space="preserve">ㄱ. 1129년 : 인종 - 서경에 대화궁 건립
+ㄷ. 1176년 : 명종 - 망이 망소이의 난
+ㄴ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
 </t>
         </is>
       </c>
@@ -585,21 +585,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ㄱ. 참설직 설치 
-ㄴ. 홍건적의 2차 침입 및 개경 함락 
-ㄷ. 향약구급방 간행</t>
+          <t>ㄱ. 후삼국 통일 
+ㄴ. 충선왕 원나라에 만권당 설치 
+ㄷ. 남경 설치</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1236년 : 고종 - 향약구급방 간행
-ㄱ. 1354년 : 공민왕 - 참설직 설치
-ㄴ. 1361년 : 공민왕 - 홍건적의 2차 침입 및 개경 함락
+          <t xml:space="preserve">ㄱ. 936년 : 태조 - 후삼국 통일
+ㄷ. 1067년 : 문종 - 남경 설치
+ㄴ. 1314년 : 충숙왕 - 충선왕 원나라에 만권당 설치
 </t>
         </is>
       </c>
@@ -607,9 +607,9 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ㄱ. 최초로 지방관 파견 
-ㄴ. 도평의사사 건의로 무과 설치 
-ㄷ. 성균관 순수 유학교육기관으로 개편</t>
+          <t>ㄱ. 윤관 별무반 조직 
+ㄴ. 자제위 설치 
+ㄷ. 김보당의 난</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,18 +619,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 983년 : 성종 - 최초로 지방관 파견
-ㄷ. 1367년 : 공민왕 - 성균관 순수 유학교육기관으로 개편
-ㄴ. 1390년 : 공양</t>
+          <t xml:space="preserve">ㄱ. 1104년 : 숙종 - 윤관 별무반 조직
+ㄷ. 1173년 : 명종 - 김보당의 난
+ㄴ. 1372년 : 공민왕 - 자제위 설치
+</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ㄱ. 주현공부법 실시 
-ㄴ. 노비환천법 실시 
-ㄷ. 요세의 백련사 결사 운동</t>
+          <t>ㄱ. 최충헌의 도방 재건 및 확대 
+ㄴ. 최의 피살 및 최씨정권 붕괴 
+ㄷ. 지원보초 유통</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,9 +641,9 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 949년 : 광종 - 주현공부법 실시
-ㄴ. 987년 : 성종 - 노비환천법 실시
-ㄷ. 1208년 : 희종 - 요세의 백련사 결사 운동
+          <t xml:space="preserve">ㄱ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
+ㄴ. 1258년 : 고종 - 최의 피살 및 최씨정권 붕괴
+ㄷ. 1278년 : 충렬왕 - 지원보초 유통
 </t>
         </is>
       </c>
@@ -650,21 +651,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ㄱ. 관학 7재 설치 
-ㄴ. 정방 최종 폐지 
-ㄷ. 전민변정도감 재설치</t>
+          <t>ㄱ. 정중부 집권 
+ㄴ. 녹과전 실시 
+ㄷ. 충선왕 원나라에 만권당 설치</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1109년 : 예종 - 관학 7재 설치
-ㄷ. 1366년 : 공민왕 - 전민변정도감 재설치
-ㄴ. 1388년 : 창왕 - 정방 최종 폐지
+          <t xml:space="preserve">ㄱ. 1174년 : 명종 - 정중부 집권
+ㄴ. 1271년 : 원종 - 녹과전 실시
+ㄷ. 1314년 : 충숙왕 - 충선왕 원나라에 만권당 설치
 </t>
         </is>
       </c>
@@ -672,21 +673,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ㄱ. 정방 최종 폐지 
-ㄴ. 최초로 지방관 파견 
-ㄷ. 남경 설치</t>
+          <t>ㄱ. 만적의 난 
+ㄴ. 과거제 실시 
+ㄷ. 몽골과 강화 체결</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 983년 : 성종 - 최초로 지방관 파견
-ㄷ. 1067년 : 문종 - 남경 설치
-ㄱ. 1388년 : 창왕 - 정방 최종 폐지
+          <t xml:space="preserve">ㄴ. 958년 : 광종 - 과거제 실시
+ㄱ. 1198년 : 신종 - 만적의 난
+ㄷ. 1259년 : 고종 - 몽골과 강화 체결
 </t>
         </is>
       </c>
@@ -694,21 +695,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ㄱ. 비서성 수서원 설치 
-ㄴ. 원나라의 1차 일본 원정 
-ㄷ. 국자감을 국학으로 개칭</t>
+          <t>ㄱ. 천리장성 축조 시작 
+ㄴ. 섬학전 마련 
+ㄷ. 지눌의 수선사 결사 운동</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 990년 : 성종 - 비서성 수서원 설치
-ㄴ. 1274년 : 충렬왕 - 원나라의 1차 일본 원정
-ㄷ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+          <t xml:space="preserve">ㄱ. 1033년 : 덕종 - 천리장성 축조 시작
+ㄷ. 1204년 : 신종 - 지눌의 수선사 결사 운동
+ㄴ. 1304년 : 충렬왕 - 섬학전 마련
 </t>
         </is>
       </c>
@@ -716,21 +717,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ㄱ. 승과제도 실시 
-ㄴ. 이규보의 동국이상국집 편찬 
-ㄷ. 이연년의 난</t>
+          <t>ㄱ. 관학 7재 설치 
+ㄴ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투 
+ㄷ. 충선왕 원나라에 만권당 설치</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 958년 : 광종 - 승과제도 실시
-ㄷ. 1237년 : 고종 - 이연년의 난
-ㄴ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
+          <t xml:space="preserve">ㄱ. 1109년 : 예종 - 관학 7재 설치
+ㄴ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
+ㄷ. 1314년 : 충숙왕 - 충선왕 원나라에 만권당 설치
 </t>
         </is>
       </c>
@@ -738,21 +739,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ㄱ. 홍건적의 1차 침입 및 서경 함락 
-ㄴ. 주전도감 설치 
-ㄷ. 거란의 3차 침입</t>
+          <t>ㄱ. 전주 관노의 난 
+ㄴ. 정세운 이방실 개경 수복 
+ㄷ. 정치도감 설치</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1018년 : 현종 - 거란의 3차 침입
-ㄴ. 1097년 : 숙종 - 주전도감 설치
-ㄱ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
+          <t xml:space="preserve">ㄱ. 1182년 : 명종 - 전주 관노의 난
+ㄷ. 1347년 : 충목왕 - 정치도감 설치
+ㄴ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
 </t>
         </is>
       </c>
@@ -760,21 +761,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ㄱ. 최승로의 시무 28조 저술 
-ㄴ. 명의 철령위 설치 통보 
-ㄷ. 향약구급방 간행</t>
+          <t>ㄱ. 향약구급방 간행 
+ㄴ. 전주 관노의 난 
+ㄷ. 최초로 지방관 파견</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 982년 : 성종 - 최승로의 시무 28조 저술
-ㄷ. 1236년 : 고종 - 향약구급방 간행
-ㄴ. 1388년 : 우왕 - 명의 철령위 설치 통보
+          <t xml:space="preserve">ㄷ. 983년 : 성종 - 최초로 지방관 파견
+ㄴ. 1182년 : 명종 - 전주 관노의 난
+ㄱ. 1236년 : 고종 - 향약구급방 간행
 </t>
         </is>
       </c>
@@ -782,21 +783,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ㄱ. 전주 관노의 난 
-ㄴ. 이제현 역사서 사략 저술 
-ㄷ. 경대승 집권</t>
+          <t>ㄱ. 도평의사사 건의로 무과 설치 
+ㄴ. 이성계의 창왕 폐위 
+ㄷ. 윤관 별무반 조직</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1179년 : 명종 - 경대승 집권
-ㄱ. 1182년 : 명종 - 전주 관노의 난
-ㄴ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
+          <t xml:space="preserve">ㄷ. 1104년 : 숙종 - 윤관 별무반 조직
+ㄴ. 1389년 : 창왕 - 이성계의 창왕 폐위
+ㄱ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
 </t>
         </is>
       </c>
@@ -804,21 +805,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ㄱ. 거란의 정안국 격파 
-ㄴ. 경대승 집권 
-ㄷ. 7대실록 완성</t>
+          <t>ㄱ. 학보 설치 
+ㄴ. 이규보의 동명왕편 편찬 
+ㄷ. 녹과전 실시</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 986년 : 성종 - 거란의 정안국 격파
-ㄷ. 1034년 : 덕종 - 7대실록 완성
-ㄴ. 1179년 : 명종 - 경대승 집권
+          <t xml:space="preserve">ㄱ. 930년 : 태조 - 학보 설치
+ㄴ. 1193년 : 명종 - 이규보의 동명왕편 편찬
+ㄷ. 1271년 : 원종 - 녹과전 실시
 </t>
         </is>
       </c>
@@ -826,21 +827,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투 
-ㄴ. 지원보초 유통 
-ㄷ. 직지심체요절 간행</t>
+          <t>ㄱ. 녹과전 실시 
+ㄴ. 공복 제정 
+ㄷ. 시정 전시과 시행</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1231년 : 고종 - 몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
-ㄴ. 1278년 : 충렬왕 - 지원보초 유통
-ㄷ. 1377년 : 우왕 - 직지심체요절 간행
+          <t xml:space="preserve">ㄴ. 960년 : 광종 - 공복 제정
+ㄷ. 976년 : 경종 - 시정 전시과 시행
+ㄱ. 1271년 : 원종 - 녹과전 실시
 </t>
         </is>
       </c>
@@ -848,9 +849,9 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ㄱ. 5도 양계 4도호부 8목 및 3경 정비 
-ㄴ. 섬학전 마련 
-ㄷ. 경정 전시과 시행</t>
+          <t>ㄱ. 김위제의 건의로 남경 건설 추진 
+ㄴ. 박위의 쓰시마 토벌 
+ㄷ. 요세의 백련사 결사 운동</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -860,9 +861,9 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1018년 : 현종 - 5도 양계 4도호부 8목 및 3경 정비
-ㄷ. 1076년 : 문종 - 경정 전시과 시행
-ㄴ. 1304년 : 충렬왕 - 섬학전 마련
+          <t xml:space="preserve">ㄱ. 1099년 : 숙종 - 김위제의 건의로 남경 건설 추진
+ㄷ. 1208년 : 희종 - 요세의 백련사 결사 운동
+ㄴ. 1389년 : 창왕 - 박위의 쓰시마 토벌
 </t>
         </is>
       </c>
@@ -870,21 +871,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ㄱ. 이규보의 동국이상국집 편찬 
-ㄴ. 최치원 문창후에 추시 및 문묘에 배향 
-ㄷ. 김보당의 난</t>
+          <t>ㄱ. 의천의 국청사 창건 및 천태종 창시 
+ㄴ. 몽골의 6차 침입 및 충주 다인철소 전투 
+ㄷ. 승과제도 실시</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
-ㄷ. 1173년 : 명종 - 김보당의 난
-ㄱ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
+          <t xml:space="preserve">ㄷ. 958년 : 광종 - 승과제도 실시
+ㄱ. 1097년 : 숙종 - 의천의 국청사 창건 및 천태종 창시
+ㄴ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
 </t>
         </is>
       </c>
@@ -892,21 +893,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ㄱ. 서경 천도 실패 
-ㄴ. 동북 9성 축조 
-ㄷ. 구제도감 설치</t>
+          <t>ㄱ. 홍건적의 2차 침입 및 개경 함락 
+ㄴ. 최충헌의 봉사 10조 저술 
+ㄷ. 원나라 연호 폐지 및 관제 복구</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 946년 : 정종 - 서경 천도 실패
-ㄴ. 1108년 : 예종 - 동북 9성 축조
-ㄷ. 1109년 : 예종 - 구제도감 설치
+          <t xml:space="preserve">ㄴ. 1196년 : 명종 - 최충헌의 봉사 10조 저술
+ㄷ. 1356년 : 공민왕 - 원나라 연호 폐지 및 관제 복구
+ㄱ. 1361년 : 공민왕 - 홍건적의 2차 침입 및 개경 함락
 </t>
         </is>
       </c>
@@ -914,21 +915,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 도방 재건 및 확대 
-ㄴ. 귀법사 창건 
-ㄷ. 홍건적의 2차 침입 및 개경 함락</t>
+          <t>ㄱ. 광군 설치 
+ㄴ. 윤관 별무반 조직 
+ㄷ. 향약구급방 간행</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 963년 : 광종 - 귀법사 창건
-ㄱ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
-ㄷ. 1361년 : 공민왕 - 홍건적의 2차 침입 및 개경 함락
+          <t xml:space="preserve">ㄱ. 947년 : 정종 - 광군 설치
+ㄴ. 1104년 : 숙종 - 윤관 별무반 조직
+ㄷ. 1236년 : 고종 - 향약구급방 간행
 </t>
         </is>
       </c>
@@ -936,21 +937,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ㄱ. 후삼국 통일 
-ㄴ. 몽골의 6차 침입 및 충주 다인철소 전투 
-ㄷ. 청연각 보문각 설치</t>
+          <t>ㄱ. 최우 집권 
+ㄴ. 몽골의 3차 침입  
+ㄷ. 학보 설치</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 936년 : 태조 - 후삼국 통일
-ㄷ. 1116년 : 예종 - 청연각 보문각 설치
-ㄴ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
+          <t xml:space="preserve">ㄷ. 930년 : 태조 - 학보 설치
+ㄱ. 1219년 : 고종 - 최우 집권
+ㄴ. 1235년 : 고종 - 몽골의 3차 침입 
 </t>
         </is>
       </c>
@@ -958,21 +959,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ㄱ. 최치원 문창후에 추시 및 문묘에 배향 
-ㄴ. 노비안검법 실시 
-ㄷ. 정방 폐지(공민왕)</t>
+          <t>ㄱ. 귀주대첩 
+ㄴ. 국자감을 국학으로 개칭 
+ㄷ. 삼복제 실시</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 956년 : 광종 - 노비안검법 실시
-ㄱ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
-ㄷ. 1352년 : 공민왕 - 정방 폐지(공민왕)
+          <t xml:space="preserve">ㄱ. 1019년 : 현종 - 귀주대첩
+ㄷ. 1057년 : 문종 - 삼복제 실시
+ㄴ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
 </t>
         </is>
       </c>
@@ -980,21 +981,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ㄱ. 초조대장경 간행 시작 
-ㄴ. 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴 
-ㄷ. 몽골과 강화 체결</t>
+          <t>ㄱ. 정방 최종 폐지 
+ㄴ. 저화 발행 
+ㄷ. 이성계의 요동 공격으로 요양 일시 점령</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1011년 : 현종 - 초조대장경 간행 시작
-ㄴ. 1253년 : 고종 - 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
-ㄷ. 1259년 : 고종 - 몽골과 강화 체결
+          <t xml:space="preserve">ㄷ. 1370년 : 공민왕 - 이성계의 요동 공격으로 요양 일시 점령
+ㄱ. 1388년 : 창왕 - 정방 최종 폐지
+ㄴ. 1391년 : 공양왕 - 저화 발행
 </t>
         </is>
       </c>
@@ -1002,21 +1003,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ㄱ. 원 세조 고려에 불개토풍 원칙 선언 
-ㄴ. 평양에 기자사당 건립 
-ㄷ. 쌍성총관부 설치</t>
+          <t>ㄱ. 홍건적의 1차 침입 및 서경 함락 
+ㄴ. 최충의 9재 학당 설립 
+ㄷ. 개경에 나성 축조</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1102년 : 숙종 - 평양에 기자사당 건립
-ㄷ. 1258년 : 고종 - 쌍성총관부 설치
-ㄱ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
+          <t xml:space="preserve">ㄷ. 1029년 : 현종 - 개경에 나성 축조
+ㄴ. 1055년 : 문종 - 최충의 9재 학당 설립
+ㄱ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
 </t>
         </is>
       </c>
@@ -1024,9 +1025,9 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ㄱ. 천리장성 완공 
-ㄴ. 광학보 설치 
-ㄷ. 요세의 백련사 결사 운동</t>
+          <t>ㄱ. 지눌의 수선사 결사 운동 
+ㄴ. 최충의 9재 학당 설립 
+ㄷ. 삼군도총제부 설치</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1036,9 +1037,9 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 946년 : 정종 - 광학보 설치
-ㄱ. 1044년 : 정종 - 천리장성 완공
-ㄷ. 1208년 : 희종 - 요세의 백련사 결사 운동
+          <t xml:space="preserve">ㄴ. 1055년 : 문종 - 최충의 9재 학당 설립
+ㄱ. 1204년 : 신종 - 지눌의 수선사 결사 운동
+ㄷ. 1391년 : 공양왕 - 삼군도총제부 설치
 </t>
         </is>
       </c>
@@ -1046,9 +1047,9 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ㄱ. 귀주대첩 
-ㄴ. 대요수국 2차 침입 
-ㄷ. 경대승 집권</t>
+          <t>ㄱ. 비서성 수서원 설치 
+ㄴ. 충선왕 원나라에 만권당 설치 
+ㄷ. 이승휴 제왕운기 저술</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1058,9 +1059,9 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1019년 : 현종 - 귀주대첩
-ㄷ. 1179년 : 명종 - 경대승 집권
-ㄴ. 1218년 : 고종 - 대요수국 2차 침입
+          <t xml:space="preserve">ㄱ. 990년 : 성종 - 비서성 수서원 설치
+ㄷ. 1287년 : 충렬왕 - 이승휴 제왕운기 저술
+ㄴ. 1314년 : 충숙왕 - 충선왕 원나라에 만권당 설치
 </t>
         </is>
       </c>
@@ -1068,21 +1069,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ㄱ. 이성계의 요동 공격으로 요양 일시 점령 
-ㄴ. 귀주대첩 
-ㄷ. 신진 사대부 등용 위한 과거제 정비</t>
+          <t>ㄱ. 서경에 대화궁 건립 
+ㄴ. 민지 본조편년강목 저술 
+ㄷ. 몽골의 2차 침입 김윤후의 처인성 전투</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1019년 : 현종 - 귀주대첩
-ㄷ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
-ㄱ. 1370년 : 공민왕 - 이성계의 요동 공격으로 요양 일시 점령
+          <t xml:space="preserve">ㄱ. 1129년 : 인종 - 서경에 대화궁 건립
+ㄷ. 1232년 : 고종 - 몽골의 2차 침입 김윤후의 처인성 전투
+ㄴ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
 </t>
         </is>
       </c>
@@ -1090,21 +1091,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ㄱ. 자제위 설치 
-ㄴ. 거란의 2차 침입 
-ㄷ. 학보 설치</t>
+          <t>ㄱ. 이자겸의 난 
+ㄴ. 청연각 보문각 설치 
+ㄷ. 지눌의 수선사 결사 운동</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 930년 : 태조 - 학보 설치
-ㄴ. 1010년 : 현종 - 거란의 2차 침입
-ㄱ. 1372년 : 공민왕 - 자제위 설치
+          <t xml:space="preserve">ㄴ. 1116년 : 예종 - 청연각 보문각 설치
+ㄱ. 1126년 : 인종 - 이자겸의 난
+ㄷ. 1204년 : 신종 - 지눌의 수선사 결사 운동
 </t>
         </is>
       </c>
@@ -1112,21 +1113,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ㄱ. 거란의 2차 침입 
-ㄴ. 귀법사 창건 
-ㄷ. 요세의 백련사 결사 운동</t>
+          <t>ㄱ. 강감찬의 흥화진 전투 
+ㄴ. 경대승 집권 
+ㄷ. 찰리변위도감 설치</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 963년 : 광종 - 귀법사 창건
-ㄱ. 1010년 : 현종 - 거란의 2차 침입
-ㄷ. 1208년 : 희종 - 요세의 백련사 결사 운동
+          <t xml:space="preserve">ㄱ. 1018년 : 현종 - 강감찬의 흥화진 전투
+ㄴ. 1179년 : 명종 - 경대승 집권
+ㄷ. 1318년 : 충숙왕 - 찰리변위도감 설치
 </t>
         </is>
       </c>
@@ -1134,21 +1135,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ㄱ. 주현공부법 실시 
-ㄴ. 혜민국 설치 
-ㄷ. 충선왕 복위교서 발표</t>
+          <t>ㄱ. 찰리변위도감 설치 
+ㄴ. 이제현 역사서 사략 저술 
+ㄷ. 문신월과법 실시</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 949년 : 광종 - 주현공부법 실시
-ㄴ. 1112년 : 예종 - 혜민국 설치
-ㄷ. 1308년 : 충선왕 - 충선왕 복위교서 발표
+          <t xml:space="preserve">ㄷ. 995년 : 성종 - 문신월과법 실시
+ㄱ. 1318년 : 충숙왕 - 찰리변위도감 설치
+ㄴ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
 </t>
         </is>
       </c>
@@ -1156,21 +1157,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ㄱ. 귀주대첩 
-ㄴ. 유신지교 15조 발표 
-ㄷ. 거란의 1차 침입 및 서희의 강동 6주 획득</t>
+          <t>ㄱ. 최치원 문창후에 추시 및 문묘에 배향 
+ㄴ. 흥왕사의 변 
+ㄷ. 재조대장경 간행 시작</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 993년 : 성종 - 거란의 1차 침입 및 서희의 강동 6주 획득
-ㄱ. 1019년 : 현종 - 귀주대첩
-ㄴ. 1127년 : 인종 - 유신지교 15조 발표
+          <t xml:space="preserve">ㄱ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄷ. 1235년 : 고종 - 재조대장경 간행 시작
+ㄴ. 1363년 : 공민왕 - 흥왕사의 변
 </t>
         </is>
       </c>
@@ -1178,21 +1179,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ㄱ. 동녕부 설치 
-ㄴ. 민지 본조편년강목 저술 
-ㄷ. 공복 제정</t>
+          <t>ㄱ. 망이 망소이의 난 
+ㄴ. 정방 최종 폐지 
+ㄷ. 이제현 역사서 사략 저술</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 960년 : 광종 - 공복 제정
-ㄱ. 1270년 : 원종 - 동녕부 설치
-ㄴ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
+          <t xml:space="preserve">ㄱ. 1176년 : 명종 - 망이 망소이의 난
+ㄷ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
+ㄴ. 1388년 : 창왕 - 정방 최종 폐지
 </t>
         </is>
       </c>
@@ -1200,21 +1201,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ㄱ. 경정 전시과 시행 
-ㄴ. 기인선상법 실시 
-ㄷ. 후삼국 통일</t>
+          <t>ㄱ. 유신지교 15조 발표 
+ㄴ. 광학보 설치 
+ㄷ. 신진 사대부 등용 위한 과거제 정비</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 936년 : 태조 - 후삼국 통일
-ㄱ. 1076년 : 문종 - 경정 전시과 시행
-ㄴ. 1077년 : 문종 - 기인선상법 실시
+          <t xml:space="preserve">ㄴ. 946년 : 정종 - 광학보 설치
+ㄱ. 1127년 : 인종 - 유신지교 15조 발표
+ㄷ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
 </t>
         </is>
       </c>
@@ -1222,21 +1223,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ㄱ. 정지의 관음포 대첩 
-ㄴ. 기인선상법 실시 
-ㄷ. 김부식의 삼국사기 편찬</t>
+          <t>ㄱ. 과거제 실시 
+ㄴ. 최우 정방 설치 
+ㄷ. 천리장성 완공</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1077년 : 문종 - 기인선상법 실시
-ㄷ. 1145년 : 인종 - 김부식의 삼국사기 편찬
-ㄱ. 1383년 : 우왕 - 정지의 관음포 대첩
+          <t xml:space="preserve">ㄱ. 958년 : 광종 - 과거제 실시
+ㄷ. 1044년 : 정종 - 천리장성 완공
+ㄴ. 1225년 : 고종 - 최우 정방 설치
 </t>
         </is>
       </c>
@@ -1244,21 +1245,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ㄱ. 교장도감 설치 
-ㄴ. 기인선상법 실시 
-ㄷ. 개경에 나성 축조</t>
+          <t>ㄱ. 최우 정방 설치 
+ㄴ. 흥왕사의 변 
+ㄷ. 역분전 지급</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1029년 : 현종 - 개경에 나성 축조
-ㄴ. 1077년 : 문종 - 기인선상법 실시
-ㄱ. 1086년 : 선종 - 교장도감 설치
+          <t xml:space="preserve">ㄷ. 940년 : 태조 - 역분전 지급
+ㄱ. 1225년 : 고종 - 최우 정방 설치
+ㄴ. 1363년 : 공민왕 - 흥왕사의 변
 </t>
         </is>
       </c>
@@ -1266,21 +1267,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ㄱ. 남경 설치 
-ㄴ. 원 세조 고려에 불개토풍 원칙 선언 
-ㄷ. 동북 9성 축조</t>
+          <t>ㄱ. 송과 국교 수립 
+ㄴ. 묘청의 서경 천도 운동 
+ㄷ. 결혼도감 설치</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1067년 : 문종 - 남경 설치
-ㄷ. 1108년 : 예종 - 동북 9성 축조
-ㄴ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
+          <t xml:space="preserve">ㄱ. 962년 : 광종 - 송과 국교 수립
+ㄴ. 1135년 : 인종 - 묘청의 서경 천도 운동
+ㄷ. 1274년 : 원종 - 결혼도감 설치
 </t>
         </is>
       </c>
@@ -1288,21 +1289,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ㄱ. 대요수국 2차 침입 
-ㄴ. 정치도감 설치 
-ㄷ. 황룡사 및 황룡사 9층 목탑 소실</t>
+          <t>ㄱ. 평양에 기자사당 건립 
+ㄴ. 의천의 국청사 창건 및 천태종 창시 
+ㄷ. 별무반의 여진 정벌</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1218년 : 고종 - 대요수국 2차 침입
-ㄷ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
-ㄴ. 1347년 : 충목왕 - 정치도감 설치
+          <t xml:space="preserve">ㄴ. 1097년 : 숙종 - 의천의 국청사 창건 및 천태종 창시
+ㄱ. 1102년 : 숙종 - 평양에 기자사당 건립
+ㄷ. 1107년 : 예종 - 별무반의 여진 정벌
 </t>
         </is>
       </c>
@@ -1310,21 +1311,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ㄱ. 경정 전시과 시행 
-ㄴ. 송과 국교 수립 
-ㄷ. 최의 피살 및 최씨정권 붕괴</t>
+          <t>ㄱ. 최영의 이인임 일파 축출 
+ㄴ. 요세의 백련사 결사 운동 
+ㄷ. 의천의 교장 간행</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 962년 : 광종 - 송과 국교 수립
-ㄱ. 1076년 : 문종 - 경정 전시과 시행
-ㄷ. 1258년 : 고종 - 최의 피살 및 최씨정권 붕괴
+          <t xml:space="preserve">ㄷ. 1101년 : 숙종 - 의천의 교장 간행
+ㄴ. 1208년 : 희종 - 요세의 백련사 결사 운동
+ㄱ. 1388년 : 우왕 - 최영의 이인임 일파 축출
 </t>
         </is>
       </c>
@@ -1332,21 +1333,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ㄱ. 7대실록 완성 
-ㄴ. 역분전 지급 
-ㄷ. 이자겸의 금 사대관계 수용</t>
+          <t>ㄱ. 탐라총관부 수복 
+ㄴ. 무신 정권 붕괴 및 개경 환도 
+ㄷ. 개경에 시전 설치</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 940년 : 태조 - 역분전 지급
-ㄱ. 1034년 : 덕종 - 7대실록 완성
-ㄷ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
+          <t xml:space="preserve">ㄷ. 919년 : 태조 - 개경에 시전 설치
+ㄴ. 1270년 : 원종 - 무신 정권 붕괴 및 개경 환도
+ㄱ. 1301년 : 충렬왕 - 탐라총관부 수복
 </t>
         </is>
       </c>
@@ -1354,21 +1355,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ㄱ. 결혼도감 설치 
-ㄴ. 탐라총관부 설치 
-ㄷ. 녹과전 실시</t>
+          <t>ㄱ. 시정 전시과 시행 
+ㄴ. 이규보의 동국이상국집 편찬 
+ㄷ. 일연 삼국유사 편찬</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1271년 : 원종 - 녹과전 실시
-ㄴ. 1273년 : 원종 - 탐라총관부 설치
-ㄱ. 1274년 : 원종 - 결혼도감 설치
+          <t xml:space="preserve">ㄱ. 976년 : 경종 - 시정 전시과 시행
+ㄴ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
+ㄷ. 1281년 : 충렬왕 - 일연 삼국유사 편찬
 </t>
         </is>
       </c>
@@ -1376,21 +1377,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ㄱ. 국자감을 국학으로 개칭 
-ㄴ. 서적포 설치 
-ㄷ. 원 세조 고려에 불개토풍 원칙 선언</t>
+          <t>ㄱ. 결혼도감 설치 
+ㄴ. 송나라 서긍의 고려도경 저술 
+ㄷ. 참설직 설치</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1101년 : 숙종 - 서적포 설치
-ㄷ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
-ㄱ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+          <t xml:space="preserve">ㄴ. 1123년 : 인종 - 송나라 서긍의 고려도경 저술
+ㄱ. 1274년 : 원종 - 결혼도감 설치
+ㄷ. 1354년 : 공민왕 - 참설직 설치
 </t>
         </is>
       </c>
@@ -1398,21 +1399,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ㄱ. 개경에 시전 설치 
-ㄴ. 도평의사사 건의로 무과 설치 
-ㄷ. 초조대장경 간행 시작</t>
+          <t>ㄱ. 광군 설치 
+ㄴ. 이규보의 동국이상국집 편찬 
+ㄷ. 몽골풍 폐지</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 919년 : 태조 - 개경에 시전 설치
-ㄷ. 1011년 : 현종 - 초조대장경 간행 시작
-ㄴ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
+          <t xml:space="preserve">ㄱ. 947년 : 정종 - 광군 설치
+ㄴ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
+ㄷ. 1352년 : 공민왕 - 몽골풍 폐지
 </t>
         </is>
       </c>
@@ -1420,21 +1421,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ㄱ. 조위총의 난 
-ㄴ. 원나라의 정동행성 설치 
-ㄷ. 황무지 개간 규정 마련</t>
+          <t>ㄱ. 홍건적의 2차 침입 및 개경 함락 
+ㄴ. 후삼국 통일 
+ㄷ. 최우 서방 설치</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 963년 : 광종 - 황무지 개간 규정 마련
-ㄱ. 1174년 : 명종 - 조위총의 난
-ㄴ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
+          <t xml:space="preserve">ㄴ. 936년 : 태조 - 후삼국 통일
+ㄷ. 1227년 : 고종 - 최우 서방 설치
+ㄱ. 1361년 : 공민왕 - 홍건적의 2차 침입 및 개경 함락
 </t>
         </is>
       </c>
@@ -1442,21 +1443,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ㄱ. 원나라의 1차 일본 원정 
-ㄴ. 노비안검법 실시 
-ㄷ. 이성계의 황산대첩</t>
+          <t>ㄱ. 최치원 문창후에 추시 및 문묘에 배향 
+ㄴ. 흥왕사의 변 
+ㄷ. 제위보 설치</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 956년 : 광종 - 노비안검법 실시
-ㄱ. 1274년 : 충렬왕 - 원나라의 1차 일본 원정
-ㄷ. 1380년 : 우왕 - 이성계의 황산대첩
+          <t xml:space="preserve">ㄷ. 963년 : 광종 - 제위보 설치
+ㄱ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄴ. 1363년 : 공민왕 - 흥왕사의 변
 </t>
         </is>
       </c>
@@ -1464,21 +1465,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ㄱ. 정세운 이방실 개경 수복 
-ㄴ. 원나라의 정동행성 설치 
-ㄷ. 위화도 회군</t>
+          <t>ㄱ. 광군 설치 
+ㄴ. 경정 전시과 시행 
+ㄷ. 김위제의 건의로 남경 건설 추진</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
-ㄱ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
-ㄷ. 1388년 : 우왕 - 위화도 회군
+          <t xml:space="preserve">ㄱ. 947년 : 정종 - 광군 설치
+ㄴ. 1076년 : 문종 - 경정 전시과 시행
+ㄷ. 1099년 : 숙종 - 김위제의 건의로 남경 건설 추진
 </t>
         </is>
       </c>
@@ -1486,21 +1487,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ㄱ. 황무지 개간 규정 마련 
-ㄴ. 거란의 2차 침입 
-ㄷ. 청연각 보문각 설치</t>
+          <t>ㄱ. 황룡사 및 황룡사 9층 목탑 소실 
+ㄴ. 민지 본조편년강목 저술 
+ㄷ. 원 세조 고려에 불개토풍 원칙 선언</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 963년 : 광종 - 황무지 개간 규정 마련
-ㄴ. 1010년 : 현종 - 거란의 2차 침입
-ㄷ. 1116년 : 예종 - 청연각 보문각 설치
+          <t xml:space="preserve">ㄱ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
+ㄷ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
+ㄴ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
 </t>
         </is>
       </c>
@@ -1508,21 +1509,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ㄱ. 이제현 역사서 사략 저술 
-ㄴ. 강동의 역 
-ㄷ. 이규보의 동국이상국집 편찬</t>
+          <t>ㄱ. 시정 전시과 시행 
+ㄴ. 혜민국 설치 
+ㄷ. 김부식의 삼국사기 편찬</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1219년 : 고종 - 강동의 역
-ㄷ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
-ㄱ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
+          <t xml:space="preserve">ㄱ. 976년 : 경종 - 시정 전시과 시행
+ㄴ. 1112년 : 예종 - 혜민국 설치
+ㄷ. 1145년 : 인종 - 김부식의 삼국사기 편찬
 </t>
         </is>
       </c>
@@ -1530,21 +1531,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ㄱ. 대요수국 2차 침입 
-ㄴ. 이의민 집권 
-ㄷ. 이자겸의 금 사대관계 수용</t>
+          <t>ㄱ. 이자겸의 금 사대관계 수용 
+ㄴ. 원나라의 1차 일본 원정 
+ㄷ. 혜민국 설치</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
-ㄴ. 1183년 : 명종 - 이의민 집권
-ㄱ. 1218년 : 고종 - 대요수국 2차 침입
+          <t xml:space="preserve">ㄷ. 1112년 : 예종 - 혜민국 설치
+ㄱ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
+ㄴ. 1274년 : 충렬왕 - 원나라의 1차 일본 원정
 </t>
         </is>
       </c>
@@ -1552,21 +1553,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ㄱ. 민지 본조편년강목 저술 
-ㄴ. 신진 사대부 등용 위한 과거제 정비 
-ㄷ. 김부식의 삼국사기 편찬</t>
+          <t>ㄱ. 고려 건국 
+ㄴ. 국자감을 국학으로 개칭 
+ㄷ. 정방 최종 폐지</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1145년 : 인종 - 김부식의 삼국사기 편찬
-ㄱ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
-ㄴ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
+          <t xml:space="preserve">ㄱ. 918년 : 태조 - 고려 건국
+ㄴ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+ㄷ. 1388년 : 창왕 - 정방 최종 폐지
 </t>
         </is>
       </c>
@@ -1574,21 +1575,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ㄱ. 국학을 성균관으로 개칭 
-ㄴ. 왕규의 난 
-ㄷ. 이자겸의 난</t>
+          <t>ㄱ. 훈요 10조 저술 
+ㄴ. 김보당의 난 
+ㄷ. 이연년의 난</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 945년 : 혜종 - 왕규의 난
-ㄷ. 1126년 : 인종 - 이자겸의 난
-ㄱ. 1308년 : 충선왕 - 국학을 성균관으로 개칭
+          <t xml:space="preserve">ㄱ. 943년 : 태조 - 훈요 10조 저술
+ㄴ. 1173년 : 명종 - 김보당의 난
+ㄷ. 1237년 : 고종 - 이연년의 난
 </t>
         </is>
       </c>
@@ -1596,21 +1597,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ㄱ. 민지 본조편년강목 저술 
-ㄴ. 이의민 집권 
-ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
+          <t>ㄱ. 7대실록 완성 
+ㄴ. 개정 전시과 시행 
+ㄷ. 입성책동 발생</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1183년 : 명종 - 이의민 집권
-ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
-ㄱ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
+          <t xml:space="preserve">ㄴ. 998년 : 목종 - 개정 전시과 시행
+ㄱ. 1034년 : 덕종 - 7대실록 완성
+ㄷ. 1309년 : 충선왕 - 입성책동 발생
 </t>
         </is>
       </c>
@@ -1618,21 +1619,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ㄱ. 도평의사사 건의로 무과 설치 
-ㄴ. 김부식의 삼국사기 편찬 
-ㄷ. 건원중보 발행</t>
+          <t>ㄱ. 지원보초 유통 
+ㄴ. 개경에 시전 설치 
+ㄷ. 정몽주 암살</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 996년 : 성종 - 건원중보 발행
-ㄴ. 1145년 : 인종 - 김부식의 삼국사기 편찬
-ㄱ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
+          <t xml:space="preserve">ㄴ. 919년 : 태조 - 개경에 시전 설치
+ㄱ. 1278년 : 충렬왕 - 지원보초 유통
+ㄷ. 1392년 : 공양왕 - 정몽주 암살
 </t>
         </is>
       </c>
@@ -1640,21 +1641,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ㄱ. 주현공부법 실시 
-ㄴ. 천리장성 축조 시작 
-ㄷ. 시정 전시과 시행</t>
+          <t xml:space="preserve">ㄱ. 원나라의 2차 일본 원정 
+ㄴ. 자제위 설치 
+ㄷ. 몽골의 3차 침입 </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 949년 : 광종 - 주현공부법 실시
-ㄷ. 976년 : 경종 - 시정 전시과 시행
-ㄴ. 1033년 : 덕종 - 천리장성 축조 시작
+          <t xml:space="preserve">ㄷ. 1235년 : 고종 - 몽골의 3차 침입 
+ㄱ. 1281년 : 충렬왕 - 원나라의 2차 일본 원정
+ㄴ. 1372년 : 공민왕 - 자제위 설치
 </t>
         </is>
       </c>
@@ -1662,9 +1663,9 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ㄱ. 국학을 성균관으로 개칭 
-ㄴ. 결혼도감 설치 
-ㄷ. 훈요 10조 저술</t>
+          <t>ㄱ. 상정고금예문 인쇄 
+ㄴ. 송나라 서긍의 고려도경 저술 
+ㄷ. 최충의 9재 학당 설립</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1674,9 +1675,9 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 943년 : 태조 - 훈요 10조 저술
-ㄴ. 1274년 : 원종 - 결혼도감 설치
-ㄱ. 1308년 : 충선왕 - 국학을 성균관으로 개칭
+          <t xml:space="preserve">ㄷ. 1055년 : 문종 - 최충의 9재 학당 설립
+ㄴ. 1123년 : 인종 - 송나라 서긍의 고려도경 저술
+ㄱ. 1234년 : 고종 - 상정고금예문 인쇄
 </t>
         </is>
       </c>
@@ -1684,9 +1685,9 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ㄱ. 천자수모법 실시 
-ㄴ. 송나라 서긍의 고려도경 저술 
-ㄷ. 이규보의 동국이상국집 편찬</t>
+          <t>ㄱ. 서경에 대화궁 건립 
+ㄴ. 지눌의 수선사 결사 운동 
+ㄷ. 참설직 설치</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1696,9 +1697,9 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1039년 : 정종 - 천자수모법 실시
-ㄴ. 1123년 : 인종 - 송나라 서긍의 고려도경 저술
-ㄷ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
+          <t xml:space="preserve">ㄱ. 1129년 : 인종 - 서경에 대화궁 건립
+ㄴ. 1204년 : 신종 - 지눌의 수선사 결사 운동
+ㄷ. 1354년 : 공민왕 - 참설직 설치
 </t>
         </is>
       </c>
@@ -1706,21 +1707,21 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ㄱ. 홍건적의 2차 침입 및 개경 함락 
-ㄴ. 천리장성 완공 
-ㄷ. 최초로 지방관 파견</t>
+          <t>ㄱ. 개경에 나성 축조 
+ㄴ. 원나라의 정동행성 설치 
+ㄷ. 유신지교 15조 발표</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 983년 : 성종 - 최초로 지방관 파견
-ㄴ. 1044년 : 정종 - 천리장성 완공
-ㄱ. 1361년 : 공민왕 - 홍건적의 2차 침입 및 개경 함락
+          <t xml:space="preserve">ㄱ. 1029년 : 현종 - 개경에 나성 축조
+ㄷ. 1127년 : 인종 - 유신지교 15조 발표
+ㄴ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
 </t>
         </is>
       </c>
@@ -1728,21 +1729,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ㄱ. 이성계의 창왕 폐위 
-ㄴ. 이자겸의 금 사대관계 수용 
-ㄷ. 교장도감 설치</t>
+          <t>ㄱ. 이성계의 황산대첩 
+ㄴ. 최치원 문창후에 추시 및 문묘에 배향 
+ㄷ. 망이 망소이의 난</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1086년 : 선종 - 교장도감 설치
-ㄴ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
-ㄱ. 1389년 : 창왕 - 이성계의 창왕 폐위
+          <t xml:space="preserve">ㄴ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄷ. 1176년 : 명종 - 망이 망소이의 난
+ㄱ. 1380년 : 우왕 - 이성계의 황산대첩
 </t>
         </is>
       </c>
@@ -1750,21 +1751,21 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ㄱ. 최우 서방 설치 
-ㄴ. 주현공부법 실시 
-ㄷ. 신진 사대부 등용 위한 과거제 정비</t>
+          <t>ㄱ. 동북 9성 축조 
+ㄴ. 소금 전매제 실시 
+ㄷ. 서경 천도 실패</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 949년 : 광종 - 주현공부법 실시
-ㄱ. 1227년 : 고종 - 최우 서방 설치
-ㄷ. 1367년 : 공민왕 - 신진 사대부 등용 위한 과거제 정비
+          <t xml:space="preserve">ㄷ. 946년 : 정종 - 서경 천도 실패
+ㄱ. 1108년 : 예종 - 동북 9성 축조
+ㄴ. 1309년 : 충선왕 - 소금 전매제 실시
 </t>
         </is>
       </c>
@@ -1772,21 +1773,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골과 강화 체결 
-ㄴ. 경대승 집권 
-ㄷ. 서경 천도 실패</t>
+          <t>ㄱ. 입성책동 발생 
+ㄴ. 최초로 지방관 파견 
+ㄷ. 무학재 및 무과 폐지</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 946년 : 정종 - 서경 천도 실패
-ㄴ. 1179년 : 명종 - 경대승 집권
-ㄱ. 1259년 : 고종 - 몽골과 강화 체결
+          <t xml:space="preserve">ㄴ. 983년 : 성종 - 최초로 지방관 파견
+ㄷ. 1133년 : 인종 - 무학재 및 무과 폐지
+ㄱ. 1309년 : 충선왕 - 입성책동 발생
 </t>
         </is>
       </c>
@@ -1794,9 +1795,9 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ㄱ. 정방 폐지(충선왕) 
-ㄴ. 도평의사사 건의로 무과 설치 
-ㄷ. 자제위 설치</t>
+          <t>ㄱ. 귀주대첩 
+ㄴ. 정세운 이방실 개경 수복 
+ㄷ. 대요수국 1차 침입</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1806,9 +1807,9 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1298년 : 충선왕 - 정방 폐지(충선왕)
-ㄷ. 1372년 : 공민왕 - 자제위 설치
-ㄴ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
+          <t xml:space="preserve">ㄱ. 1019년 : 현종 - 귀주대첩
+ㄷ. 1217년 : 고종 - 대요수국 1차 침입
+ㄴ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
 </t>
         </is>
       </c>
@@ -1816,21 +1817,21 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ㄱ. 최우 집권 
-ㄴ. 망이 망소이의 난 
-ㄷ. 초조대장경 및 교장 소실</t>
+          <t>ㄱ. 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴 
+ㄴ. 천자수모법 실시 
+ㄷ. 최우 서방 설치</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1176년 : 명종 - 망이 망소이의 난
-ㄱ. 1219년 : 고종 - 최우 집권
-ㄷ. 1232년 : 고종 - 초조대장경 및 교장 소실
+          <t xml:space="preserve">ㄴ. 1039년 : 정종 - 천자수모법 실시
+ㄷ. 1227년 : 고종 - 최우 서방 설치
+ㄱ. 1253년 : 고종 - 몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
 </t>
         </is>
       </c>
@@ -1838,21 +1839,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ㄱ. 최충의 9재 학당 설립 
-ㄴ. 송과 국교 수립 
-ㄷ. 최광수의 난</t>
+          <t>ㄱ. 노비환천법 실시 
+ㄴ. 별무반의 여진 정벌 
+ㄷ. 몽골 사신 저고여 피살</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 962년 : 광종 - 송과 국교 수립
-ㄱ. 1055년 : 문종 - 최충의 9재 학당 설립
-ㄷ. 1217년 : 고종 - 최광수의 난
+          <t xml:space="preserve">ㄱ. 987년 : 성종 - 노비환천법 실시
+ㄴ. 1107년 : 예종 - 별무반의 여진 정벌
+ㄷ. 1225년 : 고종 - 몽골 사신 저고여 피살
 </t>
         </is>
       </c>
@@ -1860,9 +1861,9 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ㄱ. 최우 집권 
-ㄴ. 자제위 설치 
-ㄷ. 최초로 지방관 파견</t>
+          <t>ㄱ. 대요수국 2차 침입 
+ㄴ. 사림원 설치 
+ㄷ. 동서 대비원 설치</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1872,9 +1873,9 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 983년 : 성종 - 최초로 지방관 파견
-ㄱ. 1219년 : 고종 - 최우 집권
-ㄴ. 1372년 : 공민왕 - 자제위 설치
+          <t xml:space="preserve">ㄷ. 1049년 : 문종 - 동서 대비원 설치
+ㄱ. 1218년 : 고종 - 대요수국 2차 침입
+ㄴ. 1298년 : 충선왕 - 사림원 설치
 </t>
         </is>
       </c>
@@ -1882,9 +1883,9 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ㄱ. 최우 정방 설치 
-ㄴ. 황룡사 및 황룡사 9층 목탑 소실 
-ㄷ. 몽골과 강화 체결</t>
+          <t>ㄱ. 의창 설치 
+ㄴ. 7대실록 완성 
+ㄷ. 동녕부 수복</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1894,9 +1895,9 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1225년 : 고종 - 최우 정방 설치
-ㄴ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
-ㄷ. 1259년 : 고종 - 몽골과 강화 체결
+          <t xml:space="preserve">ㄱ. 986년 : 성종 - 의창 설치
+ㄴ. 1034년 : 덕종 - 7대실록 완성
+ㄷ. 1290년 : 충렬왕 - 동녕부 수복
 </t>
         </is>
       </c>
@@ -1904,21 +1905,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ㄱ. 위화도 회군 
-ㄴ. 주현공부법 실시 
-ㄷ. 결혼도감 설치</t>
+          <t>ㄱ. 주현공부법 실시 
+ㄴ. 몽골 사신 저고여 피살 
+ㄷ. 참설직 설치</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 949년 : 광종 - 주현공부법 실시
-ㄷ. 1274년 : 원종 - 결혼도감 설치
-ㄱ. 1388년 : 우왕 - 위화도 회군
+          <t xml:space="preserve">ㄱ. 949년 : 광종 - 주현공부법 실시
+ㄴ. 1225년 : 고종 - 몽골 사신 저고여 피살
+ㄷ. 1354년 : 공민왕 - 참설직 설치
 </t>
         </is>
       </c>
@@ -1926,21 +1927,21 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ㄱ. 이규보의 동국이상국집 편찬 
-ㄴ. 결혼도감 설치 
-ㄷ. 천자수모법 실시</t>
+          <t>ㄱ. 사심관제도 폐지 
+ㄴ. 비서성 수서원 설치 
+ㄷ. 노비안검법 실시</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1039년 : 정종 - 천자수모법 실시
-ㄱ. 1241년 : 고종 - 이규보의 동국이상국집 편찬
-ㄴ. 1274년 : 원종 - 결혼도감 설치
+          <t xml:space="preserve">ㄷ. 956년 : 광종 - 노비안검법 실시
+ㄴ. 990년 : 성종 - 비서성 수서원 설치
+ㄱ. 1318년 : 충숙왕 - 사심관제도 폐지
 </t>
         </is>
       </c>
@@ -1948,9 +1949,9 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ㄱ. 주전도감 설치 
-ㄴ. 황룡사 및 황룡사 9층 목탑 소실 
-ㄷ. 이자겸의 난</t>
+          <t>ㄱ. 최치원 문창후에 추시 및 문묘에 배향 
+ㄴ. 몽골풍 폐지 
+ㄷ. 몽골 사신 저고여 피살</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1960,9 +1961,9 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1097년 : 숙종 - 주전도감 설치
-ㄷ. 1126년 : 인종 - 이자겸의 난
-ㄴ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
+          <t xml:space="preserve">ㄱ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄷ. 1225년 : 고종 - 몽골 사신 저고여 피살
+ㄴ. 1352년 : 공민왕 - 몽골풍 폐지
 </t>
         </is>
       </c>
@@ -1970,21 +1971,21 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ㄱ. 만부교 사건 
-ㄴ. 의천의 국청사 창건 및 천태종 창시 
-ㄷ. 훈요 10조 저술</t>
+          <t>ㄱ. 재조대장경 간행 시작 
+ㄴ. 건원중보 발행 
+ㄷ. 사심관제도 폐지</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 942년 : 태조 - 만부교 사건
-ㄷ. 943년 : 태조 - 훈요 10조 저술
-ㄴ. 1097년 : 숙종 - 의천의 국청사 창건 및 천태종 창시
+          <t xml:space="preserve">ㄴ. 996년 : 성종 - 건원중보 발행
+ㄱ. 1235년 : 고종 - 재조대장경 간행 시작
+ㄷ. 1318년 : 충숙왕 - 사심관제도 폐지
 </t>
         </is>
       </c>
@@ -1992,9 +1993,9 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ㄱ. 후삼국 통일 
-ㄴ. 도평의사사 건의로 무과 설치 
-ㄷ. 정치도감 설치</t>
+          <t>ㄱ. 관학 7재 설치 
+ㄴ. 전민변정도감 재설치 
+ㄷ. 최충헌 집권</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2004,9 +2005,9 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 936년 : 태조 - 후삼국 통일
-ㄷ. 1347년 : 충목왕 - 정치도감 설치
-ㄴ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
+          <t xml:space="preserve">ㄱ. 1109년 : 예종 - 관학 7재 설치
+ㄷ. 1196년 : 명종 - 최충헌 집권
+ㄴ. 1366년 : 공민왕 - 전민변정도감 재설치
 </t>
         </is>
       </c>
@@ -2014,21 +2015,21 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ㄱ. 정방 최종 폐지 
-ㄴ. 이자겸의 금 사대관계 수용 
-ㄷ. 7대실록 완성</t>
+          <t>ㄱ. 최충의 9재 학당 설립 
+ㄴ. 쌍성총관부 탈환 
+ㄷ. 국자감을 국학으로 개칭</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1034년 : 덕종 - 7대실록 완성
-ㄴ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
-ㄱ. 1388년 : 창왕 - 정방 최종 폐지
+          <t xml:space="preserve">ㄱ. 1055년 : 문종 - 최충의 9재 학당 설립
+ㄷ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+ㄴ. 1356년 : 공민왕 - 쌍성총관부 탈환
 </t>
         </is>
       </c>
@@ -2036,21 +2037,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 유신지교 15조 발표 
-ㄴ. 상정고금예문 인쇄 
-ㄷ. 몽골의 3차 침입 </t>
+          <t>ㄱ. 재조대장경 간행 시작 
+ㄴ. 홍건적의 1차 침입 및 서경 함락 
+ㄷ. 동녕부 수복</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1127년 : 인종 - 유신지교 15조 발표
-ㄴ. 1234년 : 고종 - 상정고금예문 인쇄
-ㄷ. 1235년 : 고종 - 몽골의 3차 침입 
+          <t xml:space="preserve">ㄱ. 1235년 : 고종 - 재조대장경 간행 시작
+ㄷ. 1290년 : 충렬왕 - 동녕부 수복
+ㄴ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
 </t>
         </is>
       </c>
@@ -2058,21 +2059,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ㄱ. 거란의 정안국 격파 
-ㄴ. 김부식의 삼국사기 편찬 
-ㄷ. 원 세조 고려에 불개토풍 원칙 선언</t>
+          <t>ㄱ. 최충헌의 봉사 10조 저술 
+ㄴ. 몽골의 3차 침입  
+ㄷ. 초조대장경 및 교장 소실</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 986년 : 성종 - 거란의 정안국 격파
-ㄴ. 1145년 : 인종 - 김부식의 삼국사기 편찬
-ㄷ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
+          <t xml:space="preserve">ㄱ. 1196년 : 명종 - 최충헌의 봉사 10조 저술
+ㄷ. 1232년 : 고종 - 초조대장경 및 교장 소실
+ㄴ. 1235년 : 고종 - 몽골의 3차 침입 
 </t>
         </is>
       </c>
@@ -2080,21 +2081,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ㄱ. 최우 서방 설치 
-ㄴ. 최치원 문창후에 추시 및 문묘에 배향 
-ㄷ. 훈요 10조 저술</t>
+          <t>ㄱ. 이연년의 난 
+ㄴ. 참설직 설치 
+ㄷ. 서경에 대화궁 건립</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 943년 : 태조 - 훈요 10조 저술
-ㄴ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
-ㄱ. 1227년 : 고종 - 최우 서방 설치
+          <t xml:space="preserve">ㄷ. 1129년 : 인종 - 서경에 대화궁 건립
+ㄱ. 1237년 : 고종 - 이연년의 난
+ㄴ. 1354년 : 공민왕 - 참설직 설치
 </t>
         </is>
       </c>
@@ -2102,21 +2103,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ㄱ. 교장도감 설치 
-ㄴ. 노비안검법 실시 
-ㄷ. 후삼국 통일</t>
+          <t>ㄱ. 공복 제정 
+ㄴ. 개정 전시과 시행 
+ㄷ. 송과 국교 수립</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 936년 : 태조 - 후삼국 통일
-ㄴ. 956년 : 광종 - 노비안검법 실시
-ㄱ. 1086년 : 선종 - 교장도감 설치
+          <t xml:space="preserve">ㄱ. 960년 : 광종 - 공복 제정
+ㄷ. 962년 : 광종 - 송과 국교 수립
+ㄴ. 998년 : 목종 - 개정 전시과 시행
 </t>
         </is>
       </c>
@@ -2124,9 +2125,9 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ㄱ. 자제위 설치 
-ㄴ. 이제현 역사서 사략 저술 
-ㄷ. 명나라 역법인 태통력 채용</t>
+          <t>ㄱ. 도평의사사 건의로 무과 설치 
+ㄴ. 원 세조 고려에 불개토풍 원칙 선언 
+ㄷ. 홍건적의 1차 침입 및 서경 함락</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2136,9 +2137,9 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
-ㄷ. 1370년 : 공민왕 - 명나라 역법인 태통력 채용
-ㄱ. 1372년 : 공민왕 - 자제위 설치
+          <t xml:space="preserve">ㄴ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
+ㄷ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
+ㄱ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
 </t>
         </is>
       </c>
@@ -2146,21 +2147,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 도방 재건 및 확대 
-ㄴ. 청연각 보문각 설치 
-ㄷ. 녹과전 실시</t>
+          <t>ㄱ. 강조의 정변 
+ㄴ. 묘청의 서경 천도 운동 
+ㄷ. 이자겸의 금 사대관계 수용</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1116년 : 예종 - 청연각 보문각 설치
-ㄱ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
-ㄷ. 1271년 : 원종 - 녹과전 실시
+          <t xml:space="preserve">ㄱ. 1009년 : 목종 - 강조의 정변
+ㄷ. 1125년 : 인종 - 이자겸의 금 사대관계 수용
+ㄴ. 1135년 : 인종 - 묘청의 서경 천도 운동
 </t>
         </is>
       </c>
@@ -2168,21 +2169,21 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ㄱ. 충선왕 원나라에 만권당 설치 
-ㄴ. 최의 피살 및 최씨정권 붕괴 
-ㄷ. 이의민 집권</t>
+          <t>ㄱ. 무학재 및 무과 폐지 
+ㄴ. 국학을 성균관으로 개칭 
+ㄷ. 도평의사사 건의로 무과 설치</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1183년 : 명종 - 이의민 집권
-ㄴ. 1258년 : 고종 - 최의 피살 및 최씨정권 붕괴
-ㄱ. 1314년 : 충숙왕 - 충선왕 원나라에 만권당 설치
+          <t xml:space="preserve">ㄱ. 1133년 : 인종 - 무학재 및 무과 폐지
+ㄴ. 1308년 : 충선왕 - 국학을 성균관으로 개칭
+ㄷ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
 </t>
         </is>
       </c>
@@ -2190,21 +2191,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ㄱ. 이성계의 요동 공격으로 요양 일시 점령 
-ㄴ. 정지의 관음포 대첩 
-ㄷ. 최충헌의 교정도감 설치</t>
+          <t>ㄱ. 정치도감 설치 
+ㄴ. 7대실록 편찬 시작 
+ㄷ. 송나라 서긍의 고려도경 저술</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1209년 : 희종 - 최충헌의 교정도감 설치
-ㄱ. 1370년 : 공민왕 - 이성계의 요동 공격으로 요양 일시 점령
-ㄴ. 1383년 : 우왕 - 정지의 관음포 대첩
+          <t xml:space="preserve">ㄴ. 1013년 : 현종 - 7대실록 편찬 시작
+ㄷ. 1123년 : 인종 - 송나라 서긍의 고려도경 저술
+ㄱ. 1347년 : 충목왕 - 정치도감 설치
 </t>
         </is>
       </c>
@@ -2212,21 +2213,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ㄱ. 정치도감 설치 
-ㄴ. 이제현 역사서 사략 저술 
-ㄷ. 향약구급방 간행</t>
+          <t>ㄱ. 강조의 정변 
+ㄴ. 최충헌의 도방 재건 및 확대 
+ㄷ. 이성계의 창왕 폐위</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1236년 : 고종 - 향약구급방 간행
-ㄱ. 1347년 : 충목왕 - 정치도감 설치
-ㄴ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
+          <t xml:space="preserve">ㄱ. 1009년 : 목종 - 강조의 정변
+ㄴ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
+ㄷ. 1389년 : 창왕 - 이성계의 창왕 폐위
 </t>
         </is>
       </c>
@@ -2234,21 +2235,21 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ㄱ. 고려 건국 
-ㄴ. 최무선의 진포대첩 
-ㄷ. 김보당의 난</t>
+          <t>ㄱ. 최영의 홍산대첩 
+ㄴ. 왕규의 난 
+ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 918년 : 태조 - 고려 건국
-ㄷ. 1173년 : 명종 - 김보당의 난
-ㄴ. 1380년 : 우왕 - 최무선의 진포대첩
+          <t xml:space="preserve">ㄴ. 945년 : 혜종 - 왕규의 난
+ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
+ㄱ. 1376년 : 우왕 - 최영의 홍산대첩
 </t>
         </is>
       </c>
@@ -2256,21 +2257,21 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ㄱ. 유신지교 15조 발표 
-ㄴ. 이자겸의 난 
-ㄷ. 최충헌의 도방 재건 및 확대</t>
+          <t>ㄱ. 7대실록 완성 
+ㄴ. 경정 전시과 시행 
+ㄷ. 대요수국 1차 침입</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1126년 : 인종 - 이자겸의 난
-ㄱ. 1127년 : 인종 - 유신지교 15조 발표
-ㄷ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
+          <t xml:space="preserve">ㄱ. 1034년 : 덕종 - 7대실록 완성
+ㄴ. 1076년 : 문종 - 경정 전시과 시행
+ㄷ. 1217년 : 고종 - 대요수국 1차 침입
 </t>
         </is>
       </c>
@@ -2278,21 +2279,21 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ㄱ. 7대실록 편찬 시작 
-ㄴ. 홍건적의 1차 침입 및 서경 함락 
-ㄷ. 이비 패좌의 난</t>
+          <t>ㄱ. 제위보 설치 
+ㄴ. 경정 전시과 시행 
+ㄷ. 최충헌의 도방 재건 및 확대</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1013년 : 현종 - 7대실록 편찬 시작
-ㄷ. 1202년 : 신종 - 이비 패좌의 난
-ㄴ. 1359년 : 공민왕 - 홍건적의 1차 침입 및 서경 함락
+          <t xml:space="preserve">ㄱ. 963년 : 광종 - 제위보 설치
+ㄴ. 1076년 : 문종 - 경정 전시과 시행
+ㄷ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
 </t>
         </is>
       </c>
@@ -2301,20 +2302,20 @@
       <c r="A86" t="inlineStr">
         <is>
           <t>ㄱ. 김부식의 삼국사기 편찬 
-ㄴ. 정중부 집권 
-ㄷ. 지눌의 수선사 결사 운동</t>
+ㄴ. 이성계의 황산대첩 
+ㄷ. 광군 설치</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1145년 : 인종 - 김부식의 삼국사기 편찬
-ㄴ. 1174년 : 명종 - 정중부 집권
-ㄷ. 1204년 : 신종 - 지눌의 수선사 결사 운동
+          <t xml:space="preserve">ㄷ. 947년 : 정종 - 광군 설치
+ㄱ. 1145년 : 인종 - 김부식의 삼국사기 편찬
+ㄴ. 1380년 : 우왕 - 이성계의 황산대첩
 </t>
         </is>
       </c>
@@ -2322,21 +2323,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ㄱ. 탐라총관부 수복 
-ㄴ. 최충의 9재 학당 설립 
-ㄷ. 도병마사 도평의사사로 개칭</t>
+          <t>ㄱ. 의천의 국청사 창건 및 천태종 창시 
+ㄴ. 재조대장경 간행 시작 
+ㄷ. 지원보초 유통</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1055년 : 문종 - 최충의 9재 학당 설립
-ㄷ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
-ㄱ. 1301년 : 충렬왕 - 탐라총관부 수복
+          <t xml:space="preserve">ㄱ. 1097년 : 숙종 - 의천의 국청사 창건 및 천태종 창시
+ㄴ. 1235년 : 고종 - 재조대장경 간행 시작
+ㄷ. 1278년 : 충렬왕 - 지원보초 유통
 </t>
         </is>
       </c>
@@ -2344,21 +2345,21 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ㄱ. 도병마사 도평의사사로 개칭 
-ㄴ. 개정 전시과 시행 
-ㄷ. 거란의 정안국 격파</t>
+          <t>ㄱ. 윤관 별무반 조직 
+ㄴ. 양현고 설치 
+ㄷ. 최치원 문창후에 추시 및 문묘에 배향</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 986년 : 성종 - 거란의 정안국 격파
-ㄴ. 998년 : 목종 - 개정 전시과 시행
-ㄱ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
+          <t xml:space="preserve">ㄷ. 1020년 : 현종 - 최치원 문창후에 추시 및 문묘에 배향
+ㄱ. 1104년 : 숙종 - 윤관 별무반 조직
+ㄴ. 1119년 : 예종 - 양현고 설치
 </t>
         </is>
       </c>
@@ -2366,21 +2367,21 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ㄱ. 결혼도감 설치 
-ㄴ. 귀주대첩 
-ㄷ. 국자감을 국학으로 개칭</t>
+          <t>ㄱ. 7대실록 편찬 시작 
+ㄴ. 왕규의 난 
+ㄷ. 거란의 정안국 격파</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1019년 : 현종 - 귀주대첩
-ㄱ. 1274년 : 원종 - 결혼도감 설치
-ㄷ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
+          <t xml:space="preserve">ㄴ. 945년 : 혜종 - 왕규의 난
+ㄷ. 986년 : 성종 - 거란의 정안국 격파
+ㄱ. 1013년 : 현종 - 7대실록 편찬 시작
 </t>
         </is>
       </c>
@@ -2388,21 +2389,21 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ㄱ. 경대승 집권 
-ㄴ. 정지의 관음포 대첩 
-ㄷ. 송과 국교 수립</t>
+          <t>ㄱ. 서적포 설치 
+ㄴ. 왕규의 난 
+ㄷ. 정지의 관음포 대첩</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 962년 : 광종 - 송과 국교 수립
-ㄱ. 1179년 : 명종 - 경대승 집권
-ㄴ. 1383년 : 우왕 - 정지의 관음포 대첩
+          <t xml:space="preserve">ㄴ. 945년 : 혜종 - 왕규의 난
+ㄱ. 1101년 : 숙종 - 서적포 설치
+ㄷ. 1383년 : 우왕 - 정지의 관음포 대첩
 </t>
         </is>
       </c>
@@ -2410,21 +2411,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ㄱ. 건원중보 발행 
-ㄴ. 원 세조 고려에 불개토풍 원칙 선언 
-ㄷ. 개경에 나성 축조</t>
+          <t>ㄱ. 황룡사 및 황룡사 9층 목탑 소실 
+ㄴ. 7대실록 편찬 시작 
+ㄷ. 학보 설치</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 996년 : 성종 - 건원중보 발행
-ㄷ. 1029년 : 현종 - 개경에 나성 축조
-ㄴ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
+          <t xml:space="preserve">ㄷ. 930년 : 태조 - 학보 설치
+ㄴ. 1013년 : 현종 - 7대실록 편찬 시작
+ㄱ. 1238년 : 고종 - 황룡사 및 황룡사 9층 목탑 소실
 </t>
         </is>
       </c>
@@ -2432,21 +2433,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ㄱ. 건원중보 발행 
-ㄴ. 직지심체요절 간행 
-ㄷ. 승과제도 실시</t>
+          <t>ㄱ. 학보 설치 
+ㄴ. 서경에 대화궁 건립 
+ㄷ. 국자감을 국학으로 개칭</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 958년 : 광종 - 승과제도 실시
-ㄱ. 996년 : 성종 - 건원중보 발행
-ㄴ. 1377년 : 우왕 - 직지심체요절 간행
+          <t xml:space="preserve">ㄱ. 930년 : 태조 - 학보 설치
+ㄴ. 1129년 : 인종 - 서경에 대화궁 건립
+ㄷ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
 </t>
         </is>
       </c>
@@ -2454,21 +2455,21 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ㄱ. 대요수국 1차 침입 
-ㄴ. 학보 설치 
-ㄷ. 참설직 설치</t>
+          <t>ㄱ. 이비 패좌의 난 
+ㄴ. 윤관 별무반 조직 
+ㄷ. 승과제도 실시</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 930년 : 태조 - 학보 설치
-ㄱ. 1217년 : 고종 - 대요수국 1차 침입
-ㄷ. 1354년 : 공민왕 - 참설직 설치
+          <t xml:space="preserve">ㄷ. 958년 : 광종 - 승과제도 실시
+ㄴ. 1104년 : 숙종 - 윤관 별무반 조직
+ㄱ. 1202년 : 신종 - 이비 패좌의 난
 </t>
         </is>
       </c>
@@ -2476,21 +2477,21 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ㄱ. 국학을 성균관으로 개칭 
-ㄴ. 훈요 10조 저술 
-ㄷ. 교장도감 설치</t>
+          <t>ㄱ. 후삼국 통일 
+ㄴ. 쌍성총관부 설치 
+ㄷ. 녹과전 실시</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 943년 : 태조 - 훈요 10조 저술
-ㄷ. 1086년 : 선종 - 교장도감 설치
-ㄱ. 1308년 : 충선왕 - 국학을 성균관으로 개칭
+          <t xml:space="preserve">ㄱ. 936년 : 태조 - 후삼국 통일
+ㄴ. 1258년 : 고종 - 쌍성총관부 설치
+ㄷ. 1271년 : 원종 - 녹과전 실시
 </t>
         </is>
       </c>
@@ -2498,21 +2499,21 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ㄱ. 민지 본조편년강목 저술 
-ㄴ. 섬학전 마련 
-ㄷ. 왕규의 난</t>
+          <t>ㄱ. 김부식의 삼국사기 편찬 
+ㄴ. 최충헌의 봉사 10조 저술 
+ㄷ. 노비안검법 실시</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 945년 : 혜종 - 왕규의 난
-ㄴ. 1304년 : 충렬왕 - 섬학전 마련
-ㄱ. 1317년 : 충숙왕 - 민지 본조편년강목 저술
+          <t xml:space="preserve">ㄷ. 956년 : 광종 - 노비안검법 실시
+ㄱ. 1145년 : 인종 - 김부식의 삼국사기 편찬
+ㄴ. 1196년 : 명종 - 최충헌의 봉사 10조 저술
 </t>
         </is>
       </c>
@@ -2520,21 +2521,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ㄱ. 지눌의 수선사 결사 운동 
-ㄴ. 최무선의 진포대첩 
-ㄷ. 전주 관노의 난</t>
+          <t>ㄱ. 혜민국 설치 
+ㄴ. 문산계 무산계 정비 
+ㄷ. 강조의 정변</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1182년 : 명종 - 전주 관노의 난
-ㄱ. 1204년 : 신종 - 지눌의 수선사 결사 운동
-ㄴ. 1380년 : 우왕 - 최무선의 진포대첩
+          <t xml:space="preserve">ㄴ. 995년 : 성종 - 문산계 무산계 정비
+ㄷ. 1009년 : 목종 - 강조의 정변
+ㄱ. 1112년 : 예종 - 혜민국 설치
 </t>
         </is>
       </c>
@@ -2542,21 +2543,21 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ㄱ. 사심관제도 폐지 
-ㄴ. 김보당의 난 
-ㄷ. 경정 전시과 시행</t>
+          <t>ㄱ. 공복 제정 
+ㄴ. 역분전 지급 
+ㄷ. 원 세조 고려에 불개토풍 원칙 선언</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1076년 : 문종 - 경정 전시과 시행
-ㄴ. 1173년 : 명종 - 김보당의 난
-ㄱ. 1318년 : 충숙왕 - 사심관제도 폐지
+          <t xml:space="preserve">ㄴ. 940년 : 태조 - 역분전 지급
+ㄱ. 960년 : 광종 - 공복 제정
+ㄷ. 1260년 : 고종 - 원 세조 고려에 불개토풍 원칙 선언
 </t>
         </is>
       </c>
@@ -2564,21 +2565,21 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ㄱ. 도병마사 도평의사사로 개칭 
-ㄴ. 최광수의 난 
-ㄷ. 최무선의 진포대첩</t>
+          <t>ㄱ. 김부식의 삼국사기 편찬 
+ㄴ. 광군 설치 
+ㄷ. 동북 9성 축조</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1217년 : 고종 - 최광수의 난
-ㄱ. 1279년 : 충렬왕 - 도병마사 도평의사사로 개칭
-ㄷ. 1380년 : 우왕 - 최무선의 진포대첩
+          <t xml:space="preserve">ㄴ. 947년 : 정종 - 광군 설치
+ㄷ. 1108년 : 예종 - 동북 9성 축조
+ㄱ. 1145년 : 인종 - 김부식의 삼국사기 편찬
 </t>
         </is>
       </c>
@@ -2586,9 +2587,9 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ㄱ. 직지심체요절 간행 
-ㄴ. 건원중보 발행 
-ㄷ. 지눌의 수선사 결사 운동</t>
+          <t>ㄱ. 충선왕 원나라에 만권당 설치 
+ㄴ. 만부교 사건 
+ㄷ. 송과 국교 수립</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2598,9 +2599,9 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 996년 : 성종 - 건원중보 발행
-ㄷ. 1204년 : 신종 - 지눌의 수선사 결사 운동
-ㄱ. 1377년 : 우왕 - 직지심체요절 간행
+          <t xml:space="preserve">ㄴ. 942년 : 태조 - 만부교 사건
+ㄷ. 962년 : 광종 - 송과 국교 수립
+ㄱ. 1314년 : 충숙왕 - 충선왕 원나라에 만권당 설치
 </t>
         </is>
       </c>
@@ -2608,21 +2609,21 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ㄱ. 삼복제 실시 
-ㄴ. 최승로의 시무 28조 저술 
-ㄷ. 정지의 관음포 대첩</t>
+          <t>ㄱ. 참설직 설치 
+ㄴ. 원나라의 정동행성 설치 
+ㄷ. 주현공부법 실시</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 982년 : 성종 - 최승로의 시무 28조 저술
-ㄱ. 1057년 : 문종 - 삼복제 실시
-ㄷ. 1383년 : 우왕 - 정지의 관음포 대첩
+          <t xml:space="preserve">ㄷ. 949년 : 광종 - 주현공부법 실시
+ㄴ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
+ㄱ. 1354년 : 공민왕 - 참설직 설치
 </t>
         </is>
       </c>
@@ -2630,21 +2631,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ㄱ. 남경 설치 
-ㄴ. 명나라 역법인 태통력 채용 
-ㄷ. 안향 성리학 전래</t>
+          <t>ㄱ. 정지의 관음포 대첩 
+ㄴ. 흥왕사의 변 
+ㄷ. 전주 관노의 난</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1067년 : 문종 - 남경 설치
-ㄷ. 1290년 : 충렬왕 - 안향 성리학 전래
-ㄴ. 1370년 : 공민왕 - 명나라 역법인 태통력 채용
+          <t xml:space="preserve">ㄷ. 1182년 : 명종 - 전주 관노의 난
+ㄴ. 1363년 : 공민왕 - 흥왕사의 변
+ㄱ. 1383년 : 우왕 - 정지의 관음포 대첩
 </t>
         </is>
       </c>
